--- a/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
+++ b/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BBSoEVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChrisB\Dropbox (Energy Innovation)\Desktop\Current CA EPS update\Transportation\Ready revised\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10249609-DBFB-46BB-8EC7-67E2DDFAE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB907651-D91C-4496-80FF-FE5769955F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Data" sheetId="5" r:id="rId2"/>
     <sheet name="Psgr LDV Calculations" sheetId="4" r:id="rId3"/>
-    <sheet name="Freight LDVs" sheetId="13" r:id="rId4"/>
-    <sheet name="Heavy freight" sheetId="7" r:id="rId5"/>
-    <sheet name="EV freight truck batteries" sheetId="8" r:id="rId6"/>
-    <sheet name="BBSoEVP-passenger" sheetId="2" r:id="rId7"/>
-    <sheet name="BBSoEVP-freight" sheetId="6" r:id="rId8"/>
+    <sheet name="LDV psg EVs" sheetId="16" r:id="rId4"/>
+    <sheet name="HDVs+LDV frt" sheetId="17" r:id="rId5"/>
+    <sheet name="BBSoEVP-passenger" sheetId="2" r:id="rId6"/>
+    <sheet name="BBSoEVP-freight" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
@@ -40,9 +40,13 @@
     <definedName name="asdf">[2]About!$A$113</definedName>
     <definedName name="compa">[3]PROVP!#REF!</definedName>
     <definedName name="Comparaison">[3]PROVP!$A:$A</definedName>
+    <definedName name="cpi_2010to2012" localSheetId="3">[11]About!#REF!</definedName>
     <definedName name="cpi_2010to2012">[4]About!#REF!</definedName>
+    <definedName name="cpi_2013to2012" localSheetId="3">[11]About!$A$163</definedName>
+    <definedName name="cpi_2013to2012">[10]About!$A$163</definedName>
     <definedName name="cpi_2014to2012">[4]About!#REF!</definedName>
     <definedName name="cpi_2017to2012">[4]About!$A$121</definedName>
+    <definedName name="cpi_2018to2012" localSheetId="3">[11]About!$A$167</definedName>
     <definedName name="cpi_2018to2012">[4]About!$A$122</definedName>
     <definedName name="cpi_2019to2012">[4]About!$A$123</definedName>
     <definedName name="cpi_2020to2012">[4]About!$A$124</definedName>
@@ -86,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="109">
   <si>
     <t>Sources:</t>
   </si>
@@ -346,129 +350,6 @@
     <t>Passenger LDV EV Cost</t>
   </si>
   <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Vehicle cost including battery</t>
-  </si>
-  <si>
-    <t>imputed $/KWh (CARB 2024)</t>
-  </si>
-  <si>
-    <t>Battery cost</t>
-  </si>
-  <si>
-    <t>Battery size</t>
-  </si>
-  <si>
-    <t>2024 Vehicle cost</t>
-  </si>
-  <si>
-    <t>Battery cost (as in CARB, $173.8 in 2024)</t>
-  </si>
-  <si>
-    <t>Calculations to find vehicle cost not including battery</t>
-  </si>
-  <si>
-    <t>Calculate with BNEF 2019 battery pack cost (capacity weighted average)</t>
-  </si>
-  <si>
-    <t>Calculate vehicle costs (new price and battery share) with 2019 historical data.</t>
-  </si>
-  <si>
-    <t>LDV freight</t>
-  </si>
-  <si>
-    <t>BNVP - 2019 (in 2018 $s)</t>
-  </si>
-  <si>
-    <t>2012s</t>
-  </si>
-  <si>
-    <t>inferred from use of 2018 dollars elsewhere in regulatory documents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018 dollars, not stated directly, but rather is </t>
-  </si>
-  <si>
-    <t>7-8 Tractor - electric</t>
-  </si>
-  <si>
-    <t>imputed $/KWh</t>
-  </si>
-  <si>
-    <t>Vehicle cost and battery cost in ARB analysis (2024)</t>
-  </si>
-  <si>
-    <t>7-8 Tractors</t>
-  </si>
-  <si>
-    <t>Diff</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Battery cost (based on 2019 battery pack price)</t>
-  </si>
-  <si>
-    <t>Battery calculations</t>
-  </si>
-  <si>
-    <t>https://about.bnef.com/blog/battery-pack-prices-fall-as-market-ramps-up-with-market-average-at-156-kwh-in-2019/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Battery Pack Prices Fall as Market Ramps Up with Market Average at $156/KWh in 2019” </t>
-  </si>
-  <si>
-    <t>Bloomberg New Energy Finance</t>
-  </si>
-  <si>
-    <t>per BNEF - weighted average battery pack price</t>
-  </si>
-  <si>
-    <t>$/kWh</t>
-  </si>
-  <si>
-    <t>https://theicct.org/publications/transitioning-zero-emission-heavy-duty-freight-vehicles</t>
-  </si>
-  <si>
-    <t>"Transitioning to zero-emission heavy-duty freight vehicles"</t>
-  </si>
-  <si>
-    <t>International Council on Clean Transportation</t>
-  </si>
-  <si>
-    <t>"Both battery pack and fuel cell systems are assumed to use similar technology in heavy-duty applications as in light-duty, and  therefore these component prices are assumed to follow price projections for lightduty vehicles.</t>
-  </si>
-  <si>
-    <t>Use same battery price as LDVs, in line with ICCT's assumption:</t>
-  </si>
-  <si>
-    <t>Class 6-7</t>
-  </si>
-  <si>
-    <t>Class 4-5</t>
-  </si>
-  <si>
-    <t>Class 2b-3</t>
-  </si>
-  <si>
     <t>https://ww3.arb.ca.gov/regact/2019/act2019/isor.pdf</t>
   </si>
   <si>
@@ -493,31 +374,7 @@
     <t>"MDV &amp; HDV Decarbonization" sheet</t>
   </si>
   <si>
-    <t>Percent of vehicle that is battery</t>
-  </si>
-  <si>
-    <t>2019 USD</t>
-  </si>
-  <si>
-    <t>2012 USD</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
-  </si>
-  <si>
     <t>2019 to 2012 USD (see cpi.xlsx)</t>
-  </si>
-  <si>
-    <t>Start Year Freight LDV price (see BNVP)</t>
-  </si>
-  <si>
-    <t>% Decline by 2030</t>
-  </si>
-  <si>
-    <t>2030 Freight LDV price from EPS (calibrated)</t>
-  </si>
-  <si>
-    <t>% Decline by 2030 (calibrated)</t>
   </si>
   <si>
     <t>for passenger LDVs with the cited NAP study and for freight LDVs with CARB.</t>
@@ -534,17 +391,45 @@
   <si>
     <t>Sales Share by Vehicle Class</t>
   </si>
+  <si>
+    <t>See BNVP.xlxs for the derivation of the below figures (purchase prices)</t>
+  </si>
+  <si>
+    <t>Vehicle with battery</t>
+  </si>
+  <si>
+    <t>Vehicle cost apart from battery (2012$s)</t>
+  </si>
+  <si>
+    <t>Battery cost (2012$s)</t>
+  </si>
+  <si>
+    <t>Battery share - LDV psg</t>
+  </si>
+  <si>
+    <t>HDV psg Battery share time series for BESP</t>
+  </si>
+  <si>
+    <t>LDV frt - Battery share of cost</t>
+  </si>
+  <si>
+    <t>Sleeper cab - battery share</t>
+  </si>
+  <si>
+    <t>Day cab - battery share</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,8 +480,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,12 +565,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -703,7 +593,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -718,8 +608,12 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -758,32 +652,45 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="13"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="14">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{13E1CFA4-3A09-44CF-A6C2-A41B6FD4087E}"/>
     <cellStyle name="Currency" xfId="7" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="5" xr:uid="{FEE8019A-152E-4283-8314-55D41AB83B33}"/>
+    <cellStyle name="Currency 2 2" xfId="11" xr:uid="{3A7BDEF6-EF22-4C96-A383-D55BB78866E8}"/>
+    <cellStyle name="Currency 3" xfId="12" xr:uid="{0A2933B7-A314-495D-B7E9-23175B4CE511}"/>
     <cellStyle name="Header: bottom row" xfId="6" xr:uid="{9E6962E9-AFA2-41CA-BAD9-275094EDBAE7}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0C503966-CFFD-4326-9D3B-E3B164AC8CF2}"/>
     <cellStyle name="Normal 2 2" xfId="9" xr:uid="{645FBC49-E98E-4F54-99F5-8C4D00B6C436}"/>
+    <cellStyle name="Normal 3" xfId="13" xr:uid="{246B2B5E-F06E-4821-A961-6577D1B70942}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{BA852934-A7AE-493A-80C5-3659A52B75F9}"/>
+    <cellStyle name="Percent 2 2" xfId="10" xr:uid="{E0DA5FF4-25E7-43D1-AB76-6A0ABE8CC4A9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1994,177 +1901,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>159859</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>163511</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878F466F-A745-48FC-9BC4-1AFD8EBC4BC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="647700" y="311150"/>
-          <a:ext cx="5611334" cy="1135061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19450</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6245279" cy="1345811"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF1387BE-840E-4F8A-8308-1EEEC171C115}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4325937" y="5912250"/>
-          <a:ext cx="6245279" cy="1345811"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>149204</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5749975" cy="1427196"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1C87BC-DBB4-430C-80CB-19C88C46A695}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4791075" y="4384654"/>
-          <a:ext cx="5749975" cy="1427196"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>596899</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>107973</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5964292" cy="947722"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33050539-B8ED-4C36-9B3A-D2915DE8BF72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4292599" y="7473973"/>
-          <a:ext cx="5964292" cy="947722"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2182,40 +1918,314 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Comparisons"/>
-      <sheetName val="EPS Results"/>
-      <sheetName val="Table 38"/>
-      <sheetName val="Table 44"/>
-      <sheetName val="Table 49"/>
-      <sheetName val="NAP"/>
+      <sheetName val="About"/>
+      <sheetName val="LDV psg EVs"/>
+      <sheetName val="LDV psg gasoline"/>
+      <sheetName val="LDV sales"/>
+      <sheetName val="LDV psg battery"/>
+      <sheetName val="LDV psg EV specs"/>
+      <sheetName val="Car"/>
+      <sheetName val="Pickup"/>
+      <sheetName val="Crossover"/>
+      <sheetName val="SUV"/>
+      <sheetName val="CARB HVIP"/>
+      <sheetName val="HDV frt"/>
+      <sheetName val="LDV frt"/>
+      <sheetName val="HDV psg"/>
+      <sheetName val="Hydrogen"/>
       <sheetName val="CARB"/>
-      <sheetName val="Currency Conversion"/>
+      <sheetName val="AEO 39"/>
+      <sheetName val="AEO 42"/>
+      <sheetName val="AEO 53"/>
+      <sheetName val="Passenger Aircraft"/>
+      <sheetName val="Ships"/>
+      <sheetName val="Motorbikes"/>
+      <sheetName val="BNVP-LDVs-psgr"/>
+      <sheetName val="BNVP-LDVs-frgt"/>
+      <sheetName val="BNVP-HDVs-frgt"/>
+      <sheetName val="BNVP-HDVs-psgr"/>
+      <sheetName val="BNVP-aircraft-psgr"/>
+      <sheetName val="BNVP-aircraft-frgt"/>
+      <sheetName val="BNVP-rail-psgr"/>
+      <sheetName val="BNVP-rail-frgt"/>
+      <sheetName val="BNVP-ships-psgr"/>
+      <sheetName val="BNVP-ships-frgt"/>
+      <sheetName val="BNVP-motorbikes-psgr"/>
+      <sheetName val="BNVP-motorbikes-frgt"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="42">
-          <cell r="B42">
-            <v>0.67491530146662049</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>0.19259262430771532</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>0.13249207422566411</v>
+      <sheetData sheetId="0">
+        <row r="163">
+          <cell r="A163">
+            <v>0.98699999999999999</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14">
+        <row r="2">
+          <cell r="B2">
+            <v>1.2857142857142858</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="21">
+          <cell r="C21">
+            <v>10101</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="LDV psg EVs"/>
+      <sheetName val="LDV psg gasoline"/>
+      <sheetName val="LDV sales"/>
+      <sheetName val="LDV psg battery"/>
+      <sheetName val="LDV psg EV specs"/>
+      <sheetName val="Car"/>
+      <sheetName val="Pickup"/>
+      <sheetName val="Crossover"/>
+      <sheetName val="SUV"/>
+      <sheetName val="HDV frt"/>
+      <sheetName val="LDV frt"/>
+      <sheetName val="HDV psg"/>
+      <sheetName val="Hydrogen"/>
+      <sheetName val="CARB"/>
+      <sheetName val="AEO 39"/>
+      <sheetName val="AEO 42"/>
+      <sheetName val="AEO 53"/>
+      <sheetName val="Passenger Aircraft"/>
+      <sheetName val="Ships"/>
+      <sheetName val="Motorbikes"/>
+      <sheetName val="BNVP-LDVs-psgr"/>
+      <sheetName val="BNVP-LDVs-frgt"/>
+      <sheetName val="BNVP-HDVs-frgt"/>
+      <sheetName val="BNVP-HDVs-psgr"/>
+      <sheetName val="BNVP-aircraft-psgr"/>
+      <sheetName val="BNVP-aircraft-frgt"/>
+      <sheetName val="BNVP-rail-psgr"/>
+      <sheetName val="BNVP-rail-frgt"/>
+      <sheetName val="BNVP-ships-psgr"/>
+      <sheetName val="BNVP-ships-frgt"/>
+      <sheetName val="BNVP-motorbikes-psgr"/>
+      <sheetName val="BNVP-motorbikes-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="163">
+          <cell r="A163">
+            <v>0.98699999999999999</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167">
+            <v>0.91400000000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="73">
+          <cell r="B73">
+            <v>17564.43511168379</v>
+          </cell>
+          <cell r="C73">
+            <v>14445.516727366106</v>
+          </cell>
+          <cell r="D73">
+            <v>12803.980735619958</v>
+          </cell>
+          <cell r="E73">
+            <v>11547.299338315235</v>
+          </cell>
+          <cell r="F73">
+            <v>10838.193401547653</v>
+          </cell>
+          <cell r="G73">
+            <v>10365.29648697256</v>
+          </cell>
+          <cell r="H73">
+            <v>10058.043444166278</v>
+          </cell>
+          <cell r="I73">
+            <v>9821.6220102241914</v>
+          </cell>
+          <cell r="J73">
+            <v>9618.5101598120345</v>
+          </cell>
+          <cell r="K73">
+            <v>9431.1515374775008</v>
+          </cell>
+          <cell r="L73">
+            <v>9250.0117266950328</v>
+          </cell>
+          <cell r="M73">
+            <v>9081.2167036384108</v>
+          </cell>
+          <cell r="N73">
+            <v>8927.2324924035056</v>
+          </cell>
+          <cell r="O73">
+            <v>8789.9417217040082</v>
+          </cell>
+          <cell r="P73">
+            <v>8688.2552538701457</v>
+          </cell>
+          <cell r="Q73">
+            <v>8564.3036332348784</v>
+          </cell>
+          <cell r="R73">
+            <v>8478.4171172902697</v>
+          </cell>
+          <cell r="S73">
+            <v>8396.6602793533584</v>
+          </cell>
+          <cell r="T73">
+            <v>8328.1421839549712</v>
+          </cell>
+          <cell r="U73">
+            <v>8268.5778730327311</v>
+          </cell>
+          <cell r="V73">
+            <v>8216.8988312786096</v>
+          </cell>
+          <cell r="W73">
+            <v>8173.2732530139692</v>
+          </cell>
+          <cell r="X73">
+            <v>8132.1837828300804</v>
+          </cell>
+          <cell r="Y73">
+            <v>8098.7812967957871</v>
+          </cell>
+          <cell r="Z73">
+            <v>8066.8564123308734</v>
+          </cell>
+          <cell r="AA73">
+            <v>8038.2767087163438</v>
+          </cell>
+          <cell r="AB73">
+            <v>8014.2559683738964</v>
+          </cell>
+          <cell r="AC73">
+            <v>7990.8145472322185</v>
+          </cell>
+          <cell r="AD73">
+            <v>7968.997470436726</v>
+          </cell>
+          <cell r="AE73">
+            <v>7949.8732527779439</v>
+          </cell>
+          <cell r="AF73">
+            <v>7930.692033789107</v>
+          </cell>
+          <cell r="AG73">
+            <v>7913.0566355637948</v>
+          </cell>
+          <cell r="AH73">
+            <v>7897.6766763428604</v>
+          </cell>
+          <cell r="AI73">
+            <v>7883.552590665905</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="86">
+          <cell r="B86">
+            <v>23379.888057824886</v>
+          </cell>
+          <cell r="C86">
+            <v>23379.888057824886</v>
+          </cell>
+          <cell r="D86">
+            <v>23379.888057824886</v>
+          </cell>
+          <cell r="E86">
+            <v>23379.888057824886</v>
+          </cell>
+          <cell r="F86">
+            <v>23379.888057824886</v>
+          </cell>
+          <cell r="G86">
+            <v>23518.877860586454</v>
+          </cell>
+          <cell r="H86">
+            <v>23670.478706238991</v>
+          </cell>
+          <cell r="I86">
+            <v>23764.588707276147</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2813,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2862,7 +2872,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2887,17 +2897,17 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -2907,22 +2917,22 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="45" t="s">
-        <v>127</v>
+      <c r="B21" s="36" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -2932,17 +2942,17 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="43" t="s">
-        <v>133</v>
+      <c r="B27" s="35" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -2967,17 +2977,17 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>0.89805481563188172</v>
@@ -15992,641 +16002,988 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA837DA2-0F73-4943-9F40-28FFCE3BE017}">
-  <dimension ref="A9:AF27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18E6ED1-8C0D-42A9-8E32-55C7406A1347}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
+  </sheetPr>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.90625" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="23" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="35" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B10">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B1" s="39">
+        <v>2017</v>
+      </c>
+      <c r="C1" s="39">
+        <f>B1+1</f>
+        <v>2018</v>
+      </c>
+      <c r="D1" s="39">
+        <f t="shared" ref="D1:AI1" si="0">C1+1</f>
+        <v>2019</v>
+      </c>
+      <c r="E1" s="39">
+        <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="C10">
+      <c r="F1" s="39">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="D10">
+      <c r="G1" s="39">
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="E10">
+      <c r="H1" s="39">
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="F10">
+      <c r="I1" s="39">
+        <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="G10">
+      <c r="J1" s="39">
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="H10">
+      <c r="K1" s="39">
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="I10">
+      <c r="L1" s="39">
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="J10">
+      <c r="M1" s="39">
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="K10">
+      <c r="N1" s="39">
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="L10">
+      <c r="O1" s="39">
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="M10">
+      <c r="P1" s="39">
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="N10">
+      <c r="Q1" s="39">
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="O10">
+      <c r="R1" s="39">
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="P10">
+      <c r="S1" s="39">
+        <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="Q10">
+      <c r="T1" s="39">
+        <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="R10">
+      <c r="U1" s="39">
+        <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="S10">
+      <c r="V1" s="39">
+        <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="T10">
+      <c r="W1" s="39">
+        <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="U10">
+      <c r="X1" s="39">
+        <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="V10">
+      <c r="Y1" s="39">
+        <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="W10">
+      <c r="Z1" s="39">
+        <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="X10">
+      <c r="AA1" s="39">
+        <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="Y10">
+      <c r="AB1" s="39">
+        <f t="shared" si="0"/>
         <v>2043</v>
       </c>
-      <c r="Z10">
+      <c r="AC1" s="39">
+        <f t="shared" si="0"/>
         <v>2044</v>
       </c>
-      <c r="AA10">
+      <c r="AD1" s="39">
+        <f t="shared" si="0"/>
         <v>2045</v>
       </c>
-      <c r="AB10">
+      <c r="AE1" s="39">
+        <f t="shared" si="0"/>
         <v>2046</v>
       </c>
-      <c r="AC10">
+      <c r="AF1" s="39">
+        <f t="shared" si="0"/>
         <v>2047</v>
       </c>
-      <c r="AD10">
+      <c r="AG1" s="39">
+        <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-      <c r="AE10">
+      <c r="AH1" s="39">
+        <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="AF10">
+      <c r="AI1" s="39">
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11">
-        <v>64896</v>
-      </c>
-      <c r="G11">
-        <v>63635</v>
-      </c>
-      <c r="H11">
-        <v>62599</v>
-      </c>
-      <c r="I11">
-        <v>61684</v>
-      </c>
-      <c r="J11">
-        <v>60829</v>
-      </c>
-      <c r="K11">
-        <v>60035</v>
-      </c>
-      <c r="L11">
-        <v>59241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12">
-        <v>80127</v>
-      </c>
-      <c r="G12">
-        <v>77616</v>
-      </c>
-      <c r="H12">
-        <v>75585</v>
-      </c>
-      <c r="I12">
-        <v>73852</v>
-      </c>
-      <c r="J12">
-        <v>72267</v>
-      </c>
-      <c r="K12">
-        <v>70830</v>
-      </c>
-      <c r="L12">
-        <v>69394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13">
-        <v>116174</v>
-      </c>
-      <c r="G13">
-        <v>112591</v>
-      </c>
-      <c r="H13">
-        <v>109702</v>
-      </c>
-      <c r="I13">
-        <v>107253</v>
-      </c>
-      <c r="J13">
-        <v>105025</v>
-      </c>
-      <c r="K13">
-        <v>103016</v>
-      </c>
-      <c r="L13">
-        <v>101008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>2020</v>
-      </c>
-      <c r="C16">
-        <v>2021</v>
-      </c>
-      <c r="D16">
-        <v>2022</v>
-      </c>
-      <c r="E16">
-        <v>2023</v>
-      </c>
-      <c r="F16">
-        <v>2024</v>
-      </c>
-      <c r="G16">
-        <v>2025</v>
-      </c>
-      <c r="H16">
-        <v>2026</v>
-      </c>
-      <c r="I16">
-        <v>2027</v>
-      </c>
-      <c r="J16">
-        <v>2028</v>
-      </c>
-      <c r="K16">
-        <v>2029</v>
-      </c>
-      <c r="L16">
-        <v>2030</v>
-      </c>
-      <c r="M16">
-        <v>2031</v>
-      </c>
-      <c r="N16">
-        <v>2032</v>
-      </c>
-      <c r="O16">
-        <v>2033</v>
-      </c>
-      <c r="P16">
-        <v>2034</v>
-      </c>
-      <c r="Q16">
-        <v>2035</v>
-      </c>
-      <c r="R16">
-        <v>2036</v>
-      </c>
-      <c r="S16">
-        <v>2037</v>
-      </c>
-      <c r="T16">
-        <v>2038</v>
-      </c>
-      <c r="U16">
-        <v>2039</v>
-      </c>
-      <c r="V16">
-        <v>2040</v>
-      </c>
-      <c r="W16">
-        <v>2041</v>
-      </c>
-      <c r="X16">
-        <v>2042</v>
-      </c>
-      <c r="Y16">
-        <v>2043</v>
-      </c>
-      <c r="Z16">
-        <v>2044</v>
-      </c>
-      <c r="AA16">
-        <v>2045</v>
-      </c>
-      <c r="AB16">
-        <v>2046</v>
-      </c>
-      <c r="AC16">
-        <v>2047</v>
-      </c>
-      <c r="AD16">
-        <v>2048</v>
-      </c>
-      <c r="AE16">
-        <v>2049</v>
-      </c>
-      <c r="AF16">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17">
-        <f>F11*About!$B$39</f>
-        <v>58280.165315246595</v>
-      </c>
-      <c r="G17">
-        <f>G11*About!$B$39</f>
-        <v>57147.718192734792</v>
-      </c>
-      <c r="H17">
-        <f>H11*About!$B$39</f>
-        <v>56217.333403740166</v>
-      </c>
-      <c r="I17">
-        <f>I11*About!$B$39</f>
-        <v>55395.613247436995</v>
-      </c>
-      <c r="J17">
-        <f>J11*About!$B$39</f>
-        <v>54627.776380071737</v>
-      </c>
-      <c r="K17">
-        <f>K11*About!$B$39</f>
-        <v>53914.720856460022</v>
-      </c>
-      <c r="L17">
-        <f>L11*About!$B$39</f>
-        <v>53201.665332848308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18">
-        <f>F12*About!$B$39</f>
-        <v>71958.438212135792</v>
-      </c>
-      <c r="G18">
-        <f>G12*About!$B$39</f>
-        <v>69703.422570084134</v>
-      </c>
-      <c r="H18">
-        <f>H12*About!$B$39</f>
-        <v>67879.473239535786</v>
-      </c>
-      <c r="I18">
-        <f>I12*About!$B$39</f>
-        <v>66323.144244045732</v>
-      </c>
-      <c r="J18">
-        <f>J12*About!$B$39</f>
-        <v>64899.727361269193</v>
-      </c>
-      <c r="K18">
-        <f>K12*About!$B$39</f>
-        <v>63609.222591206184</v>
-      </c>
-      <c r="L18">
-        <f>L12*About!$B$39</f>
-        <v>62319.6158759588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19">
-        <f>F13*About!$B$39</f>
-        <v>104330.62015121823</v>
-      </c>
-      <c r="G19">
-        <f>G13*About!$B$39</f>
-        <v>101112.88974680919</v>
-      </c>
-      <c r="H19">
-        <f>H13*About!$B$39</f>
-        <v>98518.409384448692</v>
-      </c>
-      <c r="I19">
-        <f>I13*About!$B$39</f>
-        <v>96319.073140966211</v>
-      </c>
-      <c r="J19">
-        <f>J13*About!$B$39</f>
-        <v>94318.207011738385</v>
-      </c>
-      <c r="K19">
-        <f>K13*About!$B$39</f>
-        <v>92514.014887133933</v>
-      </c>
-      <c r="L19">
-        <f>L13*About!$B$39</f>
-        <v>90710.720817345107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21">
-        <f>SUMPRODUCT('Freight LDVs'!F17:F19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>67015.820068708723</v>
-      </c>
-      <c r="G21">
-        <f>SUMPRODUCT('Freight LDVs'!G17:G19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>65390.891021686853</v>
-      </c>
-      <c r="H21">
-        <f>SUMPRODUCT('Freight LDVs'!H17:H19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>64067.932818421083</v>
-      </c>
-      <c r="I21">
-        <f>SUMPRODUCT('Freight LDVs'!I17:I19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>62922.20920506223</v>
-      </c>
-      <c r="J21">
-        <f>SUMPRODUCT('Freight LDVs'!J17:J19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>61864.745857600108</v>
-      </c>
-      <c r="K21">
-        <f>SUMPRODUCT('Freight LDVs'!K17:K19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>60895.910916680761</v>
-      </c>
-      <c r="L21">
-        <f>SUMPRODUCT('Freight LDVs'!L17:L19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>59927.367919640412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24">
-        <v>74481.20175540229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="4">
-        <f>1-L21/B24</f>
-        <v>0.19540277939602735</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26">
-        <v>60169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="4">
-        <f>1-B26/B24</f>
-        <v>0.19215857717231577</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D467F6A-158D-470D-AB54-4C074C652D59}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="42" t="s">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="45">
+        <f>B5/B3</f>
+        <v>0.42898340360805043</v>
+      </c>
+      <c r="C2" s="45">
+        <f t="shared" ref="C2:AI2" si="1">C5/C3</f>
+        <v>0.38189985829369538</v>
+      </c>
+      <c r="D2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.35385880953502563</v>
+      </c>
+      <c r="E2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.33061062739885411</v>
+      </c>
+      <c r="F2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.31673878076466516</v>
+      </c>
+      <c r="G2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.3071637220775133</v>
+      </c>
+      <c r="H2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.29955228333404671</v>
+      </c>
+      <c r="I2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.29325189522663569</v>
+      </c>
+      <c r="J2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.2881251437473577</v>
+      </c>
+      <c r="K2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.28410728207719449</v>
+      </c>
+      <c r="L2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.28017942380356686</v>
+      </c>
+      <c r="M2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.27648025645980201</v>
+      </c>
+      <c r="N2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.27307235157920734</v>
+      </c>
+      <c r="O2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.27000671199604132</v>
+      </c>
+      <c r="P2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.26771937967199533</v>
+      </c>
+      <c r="Q2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.26491175580745252</v>
+      </c>
+      <c r="R2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.26295368252641133</v>
+      </c>
+      <c r="S2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.26108004334172863</v>
+      </c>
+      <c r="T2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25950244658769495</v>
+      </c>
+      <c r="U2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25812552287963664</v>
+      </c>
+      <c r="V2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25692672429238517</v>
+      </c>
+      <c r="W2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25591172205503904</v>
+      </c>
+      <c r="X2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25495318641886194</v>
+      </c>
+      <c r="Y2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25417215114913505</v>
+      </c>
+      <c r="Z2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25342413396625779</v>
+      </c>
+      <c r="AA2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25275322218840662</v>
+      </c>
+      <c r="AB2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25218839923764358</v>
+      </c>
+      <c r="AC2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25163637454667653</v>
+      </c>
+      <c r="AD2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25112186898162525</v>
+      </c>
+      <c r="AE2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25067028609191594</v>
+      </c>
+      <c r="AF2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.25021680983295064</v>
+      </c>
+      <c r="AG2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.24979939480736604</v>
+      </c>
+      <c r="AH2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.24943498453616186</v>
+      </c>
+      <c r="AI2" s="45">
+        <f t="shared" si="1"/>
+        <v>0.24910001874829027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="40">
+        <f>B4+B5</f>
+        <v>40944.323169508672</v>
+      </c>
+      <c r="C3" s="40">
+        <f t="shared" ref="C3:AI3" si="2">C4+C5</f>
+        <v>37825.404785190993</v>
+      </c>
+      <c r="D3" s="40">
+        <f t="shared" si="2"/>
+        <v>36183.868793444846</v>
+      </c>
+      <c r="E3" s="40">
+        <f t="shared" si="2"/>
+        <v>34927.187396140122</v>
+      </c>
+      <c r="F3" s="40">
+        <f t="shared" si="2"/>
+        <v>34218.081459372537</v>
+      </c>
+      <c r="G3" s="40">
+        <f t="shared" si="2"/>
+        <v>33745.184544797448</v>
+      </c>
+      <c r="H3" s="40">
+        <f t="shared" si="2"/>
+        <v>33576.92130475273</v>
+      </c>
+      <c r="I3" s="40">
+        <f t="shared" si="2"/>
+        <v>33492.100716463181</v>
+      </c>
+      <c r="J3" s="40">
+        <f t="shared" si="2"/>
+        <v>33383.098867088178</v>
+      </c>
+      <c r="K3" s="40">
+        <f t="shared" si="2"/>
+        <v>33195.740244753644</v>
+      </c>
+      <c r="L3" s="40">
+        <f t="shared" si="2"/>
+        <v>33014.60043397118</v>
+      </c>
+      <c r="M3" s="40">
+        <f t="shared" si="2"/>
+        <v>32845.80541091456</v>
+      </c>
+      <c r="N3" s="40">
+        <f t="shared" si="2"/>
+        <v>32691.821199679653</v>
+      </c>
+      <c r="O3" s="40">
+        <f t="shared" si="2"/>
+        <v>32554.530428980157</v>
+      </c>
+      <c r="P3" s="40">
+        <f t="shared" si="2"/>
+        <v>32452.843961146293</v>
+      </c>
+      <c r="Q3" s="40">
+        <f t="shared" si="2"/>
+        <v>32328.892340511025</v>
+      </c>
+      <c r="R3" s="40">
+        <f t="shared" si="2"/>
+        <v>32243.005824566419</v>
+      </c>
+      <c r="S3" s="40">
+        <f t="shared" si="2"/>
+        <v>32161.248986629507</v>
+      </c>
+      <c r="T3" s="40">
+        <f t="shared" si="2"/>
+        <v>32092.73089123112</v>
+      </c>
+      <c r="U3" s="40">
+        <f t="shared" si="2"/>
+        <v>32033.166580308876</v>
+      </c>
+      <c r="V3" s="40">
+        <f t="shared" si="2"/>
+        <v>31981.487538554757</v>
+      </c>
+      <c r="W3" s="40">
+        <f t="shared" si="2"/>
+        <v>31937.861960290116</v>
+      </c>
+      <c r="X3" s="40">
+        <f t="shared" si="2"/>
+        <v>31896.772490106228</v>
+      </c>
+      <c r="Y3" s="40">
+        <f t="shared" si="2"/>
+        <v>31863.370004071934</v>
+      </c>
+      <c r="Z3" s="40">
+        <f t="shared" si="2"/>
+        <v>31831.445119607022</v>
+      </c>
+      <c r="AA3" s="40">
+        <f t="shared" si="2"/>
+        <v>31802.865415992492</v>
+      </c>
+      <c r="AB3" s="40">
+        <f t="shared" si="2"/>
+        <v>31778.844675650042</v>
+      </c>
+      <c r="AC3" s="40">
+        <f t="shared" si="2"/>
+        <v>31755.403254508365</v>
+      </c>
+      <c r="AD3" s="40">
+        <f t="shared" si="2"/>
+        <v>31733.586177712874</v>
+      </c>
+      <c r="AE3" s="40">
+        <f t="shared" si="2"/>
+        <v>31714.46196005409</v>
+      </c>
+      <c r="AF3" s="40">
+        <f t="shared" si="2"/>
+        <v>31695.280741065253</v>
+      </c>
+      <c r="AG3" s="40">
+        <f t="shared" si="2"/>
+        <v>31677.64534283994</v>
+      </c>
+      <c r="AH3" s="40">
+        <f t="shared" si="2"/>
+        <v>31662.265383619007</v>
+      </c>
+      <c r="AI3" s="40">
+        <f t="shared" si="2"/>
+        <v>31648.141297942053</v>
+      </c>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="40" t="e">
-        <f>#REF!*#REF!+#REF!*#REF!+#REF!*#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="39"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="str">
-        <f>'Heavy freight'!A15</f>
-        <v>6-7</v>
-      </c>
-      <c r="B11" s="34">
-        <f>C11-D11</f>
-        <v>81414</v>
-      </c>
-      <c r="C11" s="34">
-        <f>'Heavy freight'!B15</f>
-        <v>124864</v>
-      </c>
-      <c r="D11" s="34">
-        <f>'EV freight truck batteries'!C22</f>
-        <v>43450</v>
-      </c>
-      <c r="E11" s="4">
-        <f>D11/C11</f>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="34">
-        <f>D25</f>
-        <v>124864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18">
-        <f>'EV freight truck batteries'!B30</f>
-        <v>200</v>
-      </c>
-      <c r="C18">
-        <f>'EV freight truck batteries'!C30</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20">
-        <f>'EV freight truck batteries'!$E$38</f>
-        <v>173.8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="34">
-        <f>'EV freight truck batteries'!B40</f>
-        <v>116174</v>
-      </c>
-      <c r="C25" s="34">
-        <f>'EV freight truck batteries'!C40</f>
-        <v>133554</v>
-      </c>
-      <c r="D25" s="40">
-        <f>(C25+B25)/2</f>
-        <v>124864</v>
-      </c>
+      <c r="B4" s="41">
+        <f>C4</f>
+        <v>23379.888057824886</v>
+      </c>
+      <c r="C4" s="41">
+        <f>'[11]LDV psg EV specs'!B86</f>
+        <v>23379.888057824886</v>
+      </c>
+      <c r="D4" s="41">
+        <f>'[11]LDV psg EV specs'!C86</f>
+        <v>23379.888057824886</v>
+      </c>
+      <c r="E4" s="41">
+        <f>'[11]LDV psg EV specs'!D86</f>
+        <v>23379.888057824886</v>
+      </c>
+      <c r="F4" s="41">
+        <f>'[11]LDV psg EV specs'!E86</f>
+        <v>23379.888057824886</v>
+      </c>
+      <c r="G4" s="41">
+        <f>'[11]LDV psg EV specs'!F86</f>
+        <v>23379.888057824886</v>
+      </c>
+      <c r="H4" s="41">
+        <f>'[11]LDV psg EV specs'!G86</f>
+        <v>23518.877860586454</v>
+      </c>
+      <c r="I4" s="41">
+        <f>'[11]LDV psg EV specs'!H86</f>
+        <v>23670.478706238991</v>
+      </c>
+      <c r="J4" s="41">
+        <f>'[11]LDV psg EV specs'!I86</f>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="K4" s="41">
+        <f>$J$4</f>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="L4" s="41">
+        <f t="shared" ref="L4:AI4" si="3">$J$4</f>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="M4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="N4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="O4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="P4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="Q4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="R4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="S4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="T4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="U4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="V4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="W4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="X4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="Y4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="Z4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="AA4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="AB4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="AC4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="AD4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="AE4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="AF4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="AG4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="AH4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="AI4" s="41">
+        <f t="shared" si="3"/>
+        <v>23764.588707276147</v>
+      </c>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="40">
+        <f>'[11]LDV psg battery'!B73</f>
+        <v>17564.43511168379</v>
+      </c>
+      <c r="C5" s="40">
+        <f>'[11]LDV psg battery'!C73</f>
+        <v>14445.516727366106</v>
+      </c>
+      <c r="D5" s="40">
+        <f>'[11]LDV psg battery'!D73</f>
+        <v>12803.980735619958</v>
+      </c>
+      <c r="E5" s="40">
+        <f>'[11]LDV psg battery'!E73</f>
+        <v>11547.299338315235</v>
+      </c>
+      <c r="F5" s="40">
+        <f>'[11]LDV psg battery'!F73</f>
+        <v>10838.193401547653</v>
+      </c>
+      <c r="G5" s="40">
+        <f>'[11]LDV psg battery'!G73</f>
+        <v>10365.29648697256</v>
+      </c>
+      <c r="H5" s="40">
+        <f>'[11]LDV psg battery'!H73</f>
+        <v>10058.043444166278</v>
+      </c>
+      <c r="I5" s="40">
+        <f>'[11]LDV psg battery'!I73</f>
+        <v>9821.6220102241914</v>
+      </c>
+      <c r="J5" s="40">
+        <f>'[11]LDV psg battery'!J73</f>
+        <v>9618.5101598120345</v>
+      </c>
+      <c r="K5" s="40">
+        <f>'[11]LDV psg battery'!K73</f>
+        <v>9431.1515374775008</v>
+      </c>
+      <c r="L5" s="40">
+        <f>'[11]LDV psg battery'!L73</f>
+        <v>9250.0117266950328</v>
+      </c>
+      <c r="M5" s="40">
+        <f>'[11]LDV psg battery'!M73</f>
+        <v>9081.2167036384108</v>
+      </c>
+      <c r="N5" s="40">
+        <f>'[11]LDV psg battery'!N73</f>
+        <v>8927.2324924035056</v>
+      </c>
+      <c r="O5" s="40">
+        <f>'[11]LDV psg battery'!O73</f>
+        <v>8789.9417217040082</v>
+      </c>
+      <c r="P5" s="40">
+        <f>'[11]LDV psg battery'!P73</f>
+        <v>8688.2552538701457</v>
+      </c>
+      <c r="Q5" s="40">
+        <f>'[11]LDV psg battery'!Q73</f>
+        <v>8564.3036332348784</v>
+      </c>
+      <c r="R5" s="40">
+        <f>'[11]LDV psg battery'!R73</f>
+        <v>8478.4171172902697</v>
+      </c>
+      <c r="S5" s="40">
+        <f>'[11]LDV psg battery'!S73</f>
+        <v>8396.6602793533584</v>
+      </c>
+      <c r="T5" s="40">
+        <f>'[11]LDV psg battery'!T73</f>
+        <v>8328.1421839549712</v>
+      </c>
+      <c r="U5" s="40">
+        <f>'[11]LDV psg battery'!U73</f>
+        <v>8268.5778730327311</v>
+      </c>
+      <c r="V5" s="40">
+        <f>'[11]LDV psg battery'!V73</f>
+        <v>8216.8988312786096</v>
+      </c>
+      <c r="W5" s="40">
+        <f>'[11]LDV psg battery'!W73</f>
+        <v>8173.2732530139692</v>
+      </c>
+      <c r="X5" s="40">
+        <f>'[11]LDV psg battery'!X73</f>
+        <v>8132.1837828300804</v>
+      </c>
+      <c r="Y5" s="40">
+        <f>'[11]LDV psg battery'!Y73</f>
+        <v>8098.7812967957871</v>
+      </c>
+      <c r="Z5" s="40">
+        <f>'[11]LDV psg battery'!Z73</f>
+        <v>8066.8564123308734</v>
+      </c>
+      <c r="AA5" s="40">
+        <f>'[11]LDV psg battery'!AA73</f>
+        <v>8038.2767087163438</v>
+      </c>
+      <c r="AB5" s="40">
+        <f>'[11]LDV psg battery'!AB73</f>
+        <v>8014.2559683738964</v>
+      </c>
+      <c r="AC5" s="40">
+        <f>'[11]LDV psg battery'!AC73</f>
+        <v>7990.8145472322185</v>
+      </c>
+      <c r="AD5" s="40">
+        <f>'[11]LDV psg battery'!AD73</f>
+        <v>7968.997470436726</v>
+      </c>
+      <c r="AE5" s="40">
+        <f>'[11]LDV psg battery'!AE73</f>
+        <v>7949.8732527779439</v>
+      </c>
+      <c r="AF5" s="40">
+        <f>'[11]LDV psg battery'!AF73</f>
+        <v>7930.692033789107</v>
+      </c>
+      <c r="AG5" s="40">
+        <f>'[11]LDV psg battery'!AG73</f>
+        <v>7913.0566355637948</v>
+      </c>
+      <c r="AH5" s="40">
+        <f>'[11]LDV psg battery'!AH73</f>
+        <v>7897.6766763428604</v>
+      </c>
+      <c r="AI5" s="40">
+        <f>'[11]LDV psg battery'!AI73</f>
+        <v>7883.552590665905</v>
+      </c>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="40"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="40"/>
+      <c r="AI7" s="40"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+      <c r="AI8" s="40"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="40"/>
+      <c r="AD10" s="40"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="40"/>
+      <c r="AI10" s="40"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="40"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16634,453 +16991,622 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995C4628-A388-4B62-B80E-759D21A3AB7D}">
-  <dimension ref="A1:G46"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399A60A0-8909-42DB-ADD6-E394AFB9271A}">
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AF8" sqref="B8:AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="44">
-        <v>43004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="34">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="34"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="44">
-        <v>43802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="B19" t="str">
-        <f t="shared" ref="B19:B24" si="0">E27</f>
-        <v>Average</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>67.5</v>
-      </c>
-      <c r="C20" s="34">
-        <f>B20*$E$38</f>
-        <v>11731.5</v>
-      </c>
-      <c r="D20" s="38">
-        <f>B20*$A$10</f>
-        <v>10395</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>167.5</v>
-      </c>
-      <c r="C21" s="34">
-        <f>B21*$E$38</f>
-        <v>29111.500000000004</v>
-      </c>
-      <c r="D21" s="38">
-        <f>B21*$A$10</f>
-        <v>25795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="C22" s="34">
-        <f>B22*$E$38</f>
-        <v>43450</v>
-      </c>
-      <c r="D22" s="38">
-        <f>B22*$A$10</f>
-        <v>38500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="35">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="C23" s="34">
-        <f>B23*$E$38</f>
-        <v>52140</v>
-      </c>
-      <c r="D23" s="38">
-        <f>B23*$A$10</f>
-        <v>46200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="35" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="37">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="37">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="37">
+        <v>2023</v>
+      </c>
+      <c r="F2" s="37">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="37">
+        <v>2025</v>
+      </c>
+      <c r="H2" s="37">
+        <v>2026</v>
+      </c>
+      <c r="I2" s="37">
+        <v>2027</v>
+      </c>
+      <c r="J2" s="37">
+        <v>2028</v>
+      </c>
+      <c r="K2" s="37">
+        <v>2029</v>
+      </c>
+      <c r="L2" s="37">
+        <v>2030</v>
+      </c>
+      <c r="M2" s="37">
+        <v>2031</v>
+      </c>
+      <c r="N2" s="37">
+        <v>2032</v>
+      </c>
+      <c r="O2" s="37">
+        <v>2033</v>
+      </c>
+      <c r="P2" s="37">
+        <v>2034</v>
+      </c>
+      <c r="Q2" s="37">
+        <v>2035</v>
+      </c>
+      <c r="R2" s="37">
+        <v>2036</v>
+      </c>
+      <c r="S2" s="37">
+        <v>2037</v>
+      </c>
+      <c r="T2" s="37">
+        <v>2038</v>
+      </c>
+      <c r="U2" s="37">
+        <v>2039</v>
+      </c>
+      <c r="V2" s="37">
+        <v>2040</v>
+      </c>
+      <c r="W2" s="37">
+        <v>2041</v>
+      </c>
+      <c r="X2" s="37">
+        <v>2042</v>
+      </c>
+      <c r="Y2" s="37">
+        <v>2043</v>
+      </c>
+      <c r="Z2" s="37">
+        <v>2044</v>
+      </c>
+      <c r="AA2" s="37">
+        <v>2045</v>
+      </c>
+      <c r="AB2" s="37">
+        <v>2046</v>
+      </c>
+      <c r="AC2" s="37">
+        <v>2047</v>
+      </c>
+      <c r="AD2" s="37">
+        <v>2048</v>
+      </c>
+      <c r="AE2" s="37">
+        <v>2049</v>
+      </c>
+      <c r="AF2" s="37">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="46">
+        <v>0.23348219839057546</v>
+      </c>
+      <c r="C3" s="46">
+        <v>0.204038085392823</v>
+      </c>
+      <c r="D3" s="46">
+        <v>0.18238819135880077</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.16539295051873382</v>
+      </c>
+      <c r="F3" s="46">
+        <v>0.15112715046913303</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0.13998152849314624</v>
+      </c>
+      <c r="H3" s="46">
+        <v>0.13011243939191849</v>
+      </c>
+      <c r="I3" s="46">
+        <v>0.12114311555073128</v>
+      </c>
+      <c r="J3" s="46">
+        <v>0.11316720012369265</v>
+      </c>
+      <c r="K3" s="46">
+        <v>0.10599925610497601</v>
+      </c>
+      <c r="L3" s="46">
+        <v>9.9504005254286293E-2</v>
+      </c>
+      <c r="M3" s="46">
+        <v>9.3612795910448535E-2</v>
+      </c>
+      <c r="N3" s="46">
+        <v>8.8342148669738288E-2</v>
+      </c>
+      <c r="O3" s="46">
+        <v>8.3699941619350099E-2</v>
+      </c>
+      <c r="P3" s="46">
+        <v>7.9596766567212124E-2</v>
+      </c>
+      <c r="Q3" s="46">
+        <v>7.5958667775068142E-2</v>
+      </c>
+      <c r="R3" s="46">
+        <v>7.2665203935349795E-2</v>
+      </c>
+      <c r="S3" s="46">
+        <v>6.9745048957003619E-2</v>
+      </c>
+      <c r="T3" s="46">
+        <v>6.7134644536674476E-2</v>
+      </c>
+      <c r="U3" s="46">
+        <v>6.4770964367726752E-2</v>
+      </c>
+      <c r="V3" s="46">
+        <v>6.2607453563828713E-2</v>
+      </c>
+      <c r="W3" s="46">
+        <v>6.0664829699345828E-2</v>
+      </c>
+      <c r="X3" s="46">
+        <v>5.8905620272680898E-2</v>
+      </c>
+      <c r="Y3" s="46">
+        <v>5.7305073124077191E-2</v>
+      </c>
+      <c r="Z3" s="46">
+        <v>5.584277489697699E-2</v>
+      </c>
+      <c r="AA3" s="46">
+        <v>5.450104164199867E-2</v>
+      </c>
+      <c r="AB3" s="46">
+        <v>5.3267898624701167E-2</v>
+      </c>
+      <c r="AC3" s="46">
+        <v>5.2127556235103192E-2</v>
+      </c>
+      <c r="AD3" s="46">
+        <v>5.1068887905554528E-2</v>
+      </c>
+      <c r="AE3" s="46">
+        <v>5.0083038489751333E-2</v>
+      </c>
+      <c r="AF3" s="46">
+        <v>4.916222771299663E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A4" s="37"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="46">
+        <v>0.24</v>
+      </c>
+      <c r="C5" s="46">
+        <v>0.20418268179211024</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.17903316377631606</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.15995351624888648</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.14436768772122596</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.13245376321010369</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.12209123412717848</v>
+      </c>
+      <c r="I5" s="46">
+        <v>0.11282188106228654</v>
+      </c>
+      <c r="J5" s="46">
+        <v>0.10469524203009128</v>
+      </c>
+      <c r="K5" s="46">
+        <v>9.7483213187765275E-2</v>
+      </c>
+      <c r="L5" s="46">
+        <v>9.1021386735858731E-2</v>
+      </c>
+      <c r="M5" s="46">
+        <v>8.5219858740613511E-2</v>
+      </c>
+      <c r="N5" s="46">
+        <v>8.0076618965895741E-2</v>
+      </c>
+      <c r="O5" s="46">
+        <v>7.5583054094544272E-2</v>
+      </c>
+      <c r="P5" s="46">
+        <v>7.163934419821498E-2</v>
+      </c>
+      <c r="Q5" s="46">
+        <v>6.8164456614325603E-2</v>
+      </c>
+      <c r="R5" s="46">
+        <v>6.5036273640065728E-2</v>
+      </c>
+      <c r="S5" s="46">
+        <v>6.2276488665686566E-2</v>
+      </c>
+      <c r="T5" s="46">
+        <v>5.9820364330495111E-2</v>
+      </c>
+      <c r="U5" s="46">
+        <v>5.7605220113164768E-2</v>
+      </c>
+      <c r="V5" s="46">
+        <v>5.5584987062011357E-2</v>
+      </c>
+      <c r="W5" s="46">
+        <v>5.3776943950527067E-2</v>
+      </c>
+      <c r="X5" s="46">
+        <v>5.2144428445085836E-2</v>
+      </c>
+      <c r="Y5" s="46">
+        <v>5.0663111816396232E-2</v>
+      </c>
+      <c r="Z5" s="46">
+        <v>4.9313033598077961E-2</v>
+      </c>
+      <c r="AA5" s="46">
+        <v>4.8077020388887594E-2</v>
+      </c>
+      <c r="AB5" s="46">
+        <v>4.6943356733716371E-2</v>
+      </c>
+      <c r="AC5" s="46">
+        <v>4.5896975352807221E-2</v>
+      </c>
+      <c r="AD5" s="46">
+        <v>4.4927226470676367E-2</v>
+      </c>
+      <c r="AE5" s="46">
+        <v>4.4025638226093948E-2</v>
+      </c>
+      <c r="AF5" s="46">
+        <v>4.3184796669719076E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A6" s="37"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A7" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0.54523121874734648</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.49343682319560966</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.45293690730434283</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.41958587948257337</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.39046049637908725</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.36694744003672647</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.34554640412773607</v>
+      </c>
+      <c r="I7" s="46">
+        <v>0.32560409607494345</v>
+      </c>
+      <c r="J7" s="46">
+        <v>0.3074623111572436</v>
+      </c>
+      <c r="K7" s="46">
+        <v>0.29081960953785835</v>
+      </c>
+      <c r="L7" s="46">
+        <v>0.27545357901642936</v>
+      </c>
+      <c r="M7" s="46">
+        <v>0.26127564158164562</v>
+      </c>
+      <c r="N7" s="46">
+        <v>0.2483921211337331</v>
+      </c>
+      <c r="O7" s="46">
+        <v>0.23688557807000227</v>
+      </c>
+      <c r="P7" s="46">
+        <v>0.22658852311506336</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>0.21735747023443872</v>
+      </c>
+      <c r="R7" s="46">
+        <v>0.20891760131628878</v>
+      </c>
+      <c r="S7" s="46">
+        <v>0.20136725390138319</v>
+      </c>
+      <c r="T7" s="46">
+        <v>0.19456370621373489</v>
+      </c>
+      <c r="U7" s="46">
+        <v>0.18835864488141213</v>
+      </c>
+      <c r="V7" s="46">
+        <v>0.1826415571123938</v>
+      </c>
+      <c r="W7" s="46">
+        <v>0.177477331303904</v>
+      </c>
+      <c r="X7" s="46">
+        <v>0.17277530112961961</v>
+      </c>
+      <c r="Y7" s="46">
+        <v>0.16847621680147709</v>
+      </c>
+      <c r="Z7" s="46">
+        <v>0.1645307481054927</v>
+      </c>
+      <c r="AA7" s="46">
+        <v>0.16089559544203755</v>
+      </c>
+      <c r="AB7" s="46">
+        <v>0.15754192472054221</v>
+      </c>
+      <c r="AC7" s="46">
+        <v>0.15442973230233295</v>
+      </c>
+      <c r="AD7" s="46">
+        <v>0.15153101644452951</v>
+      </c>
+      <c r="AE7" s="46">
+        <v>0.14882348471020287</v>
+      </c>
+      <c r="AF7" s="46">
+        <v>0.14628740091179032</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A8" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="C24" s="34">
-        <f>B24*$E$38</f>
-        <v>69520</v>
-      </c>
-      <c r="D24" s="38">
-        <f>B24*$A$10</f>
-        <v>61600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28">
-        <v>55</v>
-      </c>
-      <c r="C28">
-        <v>80</v>
-      </c>
-      <c r="D28">
-        <f>C28-B28</f>
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <f>(C28+B28)/2</f>
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29">
-        <v>135</v>
-      </c>
-      <c r="C29">
-        <v>200</v>
-      </c>
-      <c r="D29">
-        <f>C29-B29</f>
-        <v>65</v>
-      </c>
-      <c r="E29">
-        <f>(C29+B29)/2</f>
-        <v>167.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30">
-        <v>200</v>
-      </c>
-      <c r="C30">
-        <v>300</v>
-      </c>
-      <c r="D30">
-        <f>C30-B30</f>
-        <v>100</v>
-      </c>
-      <c r="E30">
-        <f>(C30+B30)/2</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="35">
-        <v>8</v>
-      </c>
-      <c r="B31">
-        <v>240</v>
-      </c>
-      <c r="C31">
-        <v>360</v>
-      </c>
-      <c r="D31">
-        <f>C31-B31</f>
-        <v>120</v>
-      </c>
-      <c r="E31">
-        <f>(C31+B31)/2</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32">
-        <v>400</v>
-      </c>
-      <c r="E32">
-        <f>B32</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38">
-        <f>64896</f>
-        <v>64896</v>
-      </c>
-      <c r="C38">
-        <v>69241</v>
-      </c>
-      <c r="D38">
-        <f>C38-B38</f>
-        <v>4345</v>
-      </c>
-      <c r="E38">
-        <f>D38/D28</f>
-        <v>173.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39">
-        <v>80127</v>
-      </c>
-      <c r="C39">
-        <v>91424</v>
-      </c>
-      <c r="D39">
-        <f>C39-B39</f>
-        <v>11297</v>
-      </c>
-      <c r="E39">
-        <f>D39/D29</f>
-        <v>173.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40">
-        <v>116174</v>
-      </c>
-      <c r="C40">
-        <v>133554</v>
-      </c>
-      <c r="D40">
-        <f>C40-B40</f>
-        <v>17380</v>
-      </c>
-      <c r="E40">
-        <f>D40/D30</f>
-        <v>173.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="35">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>154799</v>
-      </c>
-      <c r="C41">
-        <v>175655</v>
-      </c>
-      <c r="D41">
-        <f>C41-B41</f>
-        <v>20856</v>
-      </c>
-      <c r="E41">
-        <f>D41/D31</f>
-        <v>173.8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43">
-        <v>201351</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>103</v>
+      <c r="B8" s="46">
+        <v>0.37478891888088628</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.32752481329209915</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.29277209794665171</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.26549109757713452</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.2425914340720963</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.22470032443106358</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.20885832337023419</v>
+      </c>
+      <c r="I8" s="46">
+        <v>0.19446063819893158</v>
+      </c>
+      <c r="J8" s="46">
+        <v>0.18165758622927072</v>
+      </c>
+      <c r="K8" s="46">
+        <v>0.17015150136330795</v>
+      </c>
+      <c r="L8" s="46">
+        <v>0.15972523306118272</v>
+      </c>
+      <c r="M8" s="46">
+        <v>0.15026858070782265</v>
+      </c>
+      <c r="N8" s="46">
+        <v>0.14180806339744578</v>
+      </c>
+      <c r="O8" s="46">
+        <v>0.13435632714676274</v>
+      </c>
+      <c r="P8" s="46">
+        <v>0.12776985266446711</v>
+      </c>
+      <c r="Q8" s="46">
+        <v>0.12192992515612415</v>
+      </c>
+      <c r="R8" s="46">
+        <v>0.1166432105356096</v>
+      </c>
+      <c r="S8" s="46">
+        <v>0.111955736566103</v>
+      </c>
+      <c r="T8" s="46">
+        <v>0.10776547856236247</v>
+      </c>
+      <c r="U8" s="46">
+        <v>0.10397126580778587</v>
+      </c>
+      <c r="V8" s="46">
+        <v>0.10049836774202567</v>
+      </c>
+      <c r="W8" s="46">
+        <v>9.7380040507742058E-2</v>
+      </c>
+      <c r="X8" s="46">
+        <v>9.4556132716699853E-2</v>
+      </c>
+      <c r="Y8" s="46">
+        <v>9.1986911852847936E-2</v>
+      </c>
+      <c r="Z8" s="46">
+        <v>8.9639610108243339E-2</v>
+      </c>
+      <c r="AA8" s="46">
+        <v>8.7485840957849031E-2</v>
+      </c>
+      <c r="AB8" s="46">
+        <v>8.5506382388997798E-2</v>
+      </c>
+      <c r="AC8" s="46">
+        <v>8.3675888696984002E-2</v>
+      </c>
+      <c r="AD8" s="46">
+        <v>8.1976499358439051E-2</v>
+      </c>
+      <c r="AE8" s="46">
+        <v>8.039399996758545E-2</v>
+      </c>
+      <c r="AF8" s="46">
+        <v>7.8915901517713744E-2</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{4CA6B487-191E-4EC2-9F5E-4A9F38E6A0F1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17195,124 +17721,132 @@
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>0.44</v>
+        <f>'LDV psg EVs'!D2</f>
+        <v>0.35385880953502563</v>
       </c>
       <c r="C2" s="5">
-        <v>0.44</v>
+        <f>'LDV psg EVs'!E2</f>
+        <v>0.33061062739885411</v>
       </c>
       <c r="D2" s="5">
-        <v>0.44</v>
+        <f>'LDV psg EVs'!F2</f>
+        <v>0.31673878076466516</v>
       </c>
       <c r="E2" s="5">
-        <v>0.44</v>
+        <f>'LDV psg EVs'!G2</f>
+        <v>0.3071637220775133</v>
       </c>
       <c r="F2" s="5">
-        <v>0.44</v>
+        <f>'LDV psg EVs'!H2</f>
+        <v>0.29955228333404671</v>
       </c>
       <c r="G2" s="5">
-        <v>0.44</v>
+        <f>'LDV psg EVs'!I2</f>
+        <v>0.29325189522663569</v>
       </c>
       <c r="H2" s="5">
-        <v>0.44</v>
+        <f>'LDV psg EVs'!J2</f>
+        <v>0.2881251437473577</v>
       </c>
       <c r="I2" s="5">
-        <f>H2+($M$2-$H$2)/COUNT($I$1:$M$1)</f>
-        <v>0.45200000000000001</v>
+        <f>'LDV psg EVs'!K2</f>
+        <v>0.28410728207719449</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:K2" si="0">I2+($M$2-$H$2)/COUNT($I$1:$M$1)</f>
-        <v>0.46400000000000002</v>
+        <f>'LDV psg EVs'!L2</f>
+        <v>0.28017942380356686</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.47600000000000003</v>
+        <f>'LDV psg EVs'!M2</f>
+        <v>0.27648025645980201</v>
       </c>
       <c r="L2" s="5">
-        <f>K2+($M$2-$H$2)/COUNT($I$1:$M$1)</f>
-        <v>0.48800000000000004</v>
+        <f>'LDV psg EVs'!N2</f>
+        <v>0.27307235157920734</v>
       </c>
       <c r="M2" s="5">
-        <v>0.5</v>
+        <f>'LDV psg EVs'!O2</f>
+        <v>0.27000671199604132</v>
       </c>
       <c r="N2" s="5">
-        <f t="shared" ref="N2:AG3" si="1">M2</f>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!P2</f>
+        <v>0.26771937967199533</v>
       </c>
       <c r="O2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!Q2</f>
+        <v>0.26491175580745252</v>
       </c>
       <c r="P2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!R2</f>
+        <v>0.26295368252641133</v>
       </c>
       <c r="Q2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!S2</f>
+        <v>0.26108004334172863</v>
       </c>
       <c r="R2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!T2</f>
+        <v>0.25950244658769495</v>
       </c>
       <c r="S2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!U2</f>
+        <v>0.25812552287963664</v>
       </c>
       <c r="T2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!V2</f>
+        <v>0.25692672429238517</v>
       </c>
       <c r="U2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!W2</f>
+        <v>0.25591172205503904</v>
       </c>
       <c r="V2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!X2</f>
+        <v>0.25495318641886194</v>
       </c>
       <c r="W2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!Y2</f>
+        <v>0.25417215114913505</v>
       </c>
       <c r="X2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!Z2</f>
+        <v>0.25342413396625779</v>
       </c>
       <c r="Y2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!AA2</f>
+        <v>0.25275322218840662</v>
       </c>
       <c r="Z2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!AB2</f>
+        <v>0.25218839923764358</v>
       </c>
       <c r="AA2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!AC2</f>
+        <v>0.25163637454667653</v>
       </c>
       <c r="AB2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!AD2</f>
+        <v>0.25112186898162525</v>
       </c>
       <c r="AC2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!AE2</f>
+        <v>0.25067028609191594</v>
       </c>
       <c r="AD2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!AF2</f>
+        <v>0.25021680983295064</v>
       </c>
       <c r="AE2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!AG2</f>
+        <v>0.24979939480736604</v>
       </c>
       <c r="AF2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!AH2</f>
+        <v>0.24943498453616186</v>
       </c>
       <c r="AG2" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f>'LDV psg EVs'!AI2</f>
+        <v>0.24910001874829027</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -17320,132 +17854,132 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <f>'Heavy freight'!E11</f>
-        <v>0.34797860071758074</v>
+        <f>C3</f>
+        <v>0.23348219839057546</v>
       </c>
       <c r="C3" s="5">
-        <f>B3</f>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!B3</f>
+        <v>0.23348219839057546</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:M3" si="2">C3</f>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!C3</f>
+        <v>0.204038085392823</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!D3</f>
+        <v>0.18238819135880077</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!E3</f>
+        <v>0.16539295051873382</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!F3</f>
+        <v>0.15112715046913303</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!G3</f>
+        <v>0.13998152849314624</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!H3</f>
+        <v>0.13011243939191849</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!I3</f>
+        <v>0.12114311555073128</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!J3</f>
+        <v>0.11316720012369265</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!K3</f>
+        <v>0.10599925610497601</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!L3</f>
+        <v>9.9504005254286293E-2</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!M3</f>
+        <v>9.3612795910448535E-2</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!N3</f>
+        <v>8.8342148669738288E-2</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!O3</f>
+        <v>8.3699941619350099E-2</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!P3</f>
+        <v>7.9596766567212124E-2</v>
       </c>
       <c r="R3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!Q3</f>
+        <v>7.5958667775068142E-2</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!R3</f>
+        <v>7.2665203935349795E-2</v>
       </c>
       <c r="T3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!S3</f>
+        <v>6.9745048957003619E-2</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!T3</f>
+        <v>6.7134644536674476E-2</v>
       </c>
       <c r="V3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!U3</f>
+        <v>6.4770964367726752E-2</v>
       </c>
       <c r="W3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!V3</f>
+        <v>6.2607453563828713E-2</v>
       </c>
       <c r="X3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!W3</f>
+        <v>6.0664829699345828E-2</v>
       </c>
       <c r="Y3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!X3</f>
+        <v>5.8905620272680898E-2</v>
       </c>
       <c r="Z3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!Y3</f>
+        <v>5.7305073124077191E-2</v>
       </c>
       <c r="AA3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!Z3</f>
+        <v>5.584277489697699E-2</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AA3</f>
+        <v>5.450104164199867E-2</v>
       </c>
       <c r="AC3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AB3</f>
+        <v>5.3267898624701167E-2</v>
       </c>
       <c r="AD3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AC3</f>
+        <v>5.2127556235103192E-2</v>
       </c>
       <c r="AE3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AD3</f>
+        <v>5.1068887905554528E-2</v>
       </c>
       <c r="AF3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AE3</f>
+        <v>5.0083038489751333E-2</v>
       </c>
       <c r="AG3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AF3</f>
+        <v>4.916222771299663E-2</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
@@ -17453,132 +17987,132 @@
         <v>6</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" ref="B4:C7" si="3">B3</f>
-        <v>0.34797860071758074</v>
+        <f t="shared" ref="B4:C7" si="0">B3</f>
+        <v>0.23348219839057546</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.23348219839057546</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:AG4" si="4">D3</f>
-        <v>0.34797860071758074</v>
+        <f t="shared" ref="D4:AG4" si="1">D3</f>
+        <v>0.204038085392823</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.18238819135880077</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.16539295051873382</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.15112715046913303</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.13998152849314624</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.13011243939191849</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.12114311555073128</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.11316720012369265</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.10599925610497601</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>9.9504005254286293E-2</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>9.3612795910448535E-2</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>8.8342148669738288E-2</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>8.3699941619350099E-2</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>7.9596766567212124E-2</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>7.5958667775068142E-2</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>7.2665203935349795E-2</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>6.9745048957003619E-2</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>6.7134644536674476E-2</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>6.4770964367726752E-2</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>6.2607453563828713E-2</v>
       </c>
       <c r="X4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>6.0664829699345828E-2</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>5.8905620272680898E-2</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>5.7305073124077191E-2</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>5.584277489697699E-2</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>5.450104164199867E-2</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>5.3267898624701167E-2</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>5.2127556235103192E-2</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>5.1068887905554528E-2</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>5.0083038489751333E-2</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>4.916222771299663E-2</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
@@ -17586,132 +18120,132 @@
         <v>7</v>
       </c>
       <c r="B5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.23348219839057546</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:C7" si="2">C4</f>
+        <v>0.23348219839057546</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:AG5" si="3">D4</f>
+        <v>0.204038085392823</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="C5" s="5">
-        <f t="shared" ref="C5:C7" si="5">C4</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:AG5" si="6">D4</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <v>0.18238819135880077</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>0.16539295051873382</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>0.15112715046913303</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>0.13998152849314624</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>0.13011243939191849</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>0.12114311555073128</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>0.11316720012369265</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>0.10599925610497601</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>9.9504005254286293E-2</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>9.3612795910448535E-2</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>8.8342148669738288E-2</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>8.3699941619350099E-2</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>7.9596766567212124E-2</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>7.5958667775068142E-2</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>7.2665203935349795E-2</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>6.9745048957003619E-2</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>6.7134644536674476E-2</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>6.4770964367726752E-2</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>6.2607453563828713E-2</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>6.0664829699345828E-2</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>5.8905620272680898E-2</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>5.7305073124077191E-2</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>5.584277489697699E-2</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>5.450104164199867E-2</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>5.3267898624701167E-2</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>5.2127556235103192E-2</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>5.1068887905554528E-2</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>5.0083038489751333E-2</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="6"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="3"/>
+        <v>4.916222771299663E-2</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
@@ -17719,132 +18253,132 @@
         <v>8</v>
       </c>
       <c r="B6" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.23348219839057546</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="5"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="2"/>
+        <v>0.23348219839057546</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:AG6" si="7">D5</f>
-        <v>0.34797860071758074</v>
+        <f t="shared" ref="D6:AG6" si="4">D5</f>
+        <v>0.204038085392823</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>0.18238819135880077</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>0.16539295051873382</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>0.15112715046913303</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>0.13998152849314624</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>0.13011243939191849</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>0.12114311555073128</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>0.11316720012369265</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>0.10599925610497601</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>9.9504005254286293E-2</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>9.3612795910448535E-2</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>8.8342148669738288E-2</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>8.3699941619350099E-2</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>7.9596766567212124E-2</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>7.5958667775068142E-2</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>7.2665203935349795E-2</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>6.9745048957003619E-2</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>6.7134644536674476E-2</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>6.4770964367726752E-2</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>6.2607453563828713E-2</v>
       </c>
       <c r="X6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>6.0664829699345828E-2</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>5.8905620272680898E-2</v>
       </c>
       <c r="Z6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>5.7305073124077191E-2</v>
       </c>
       <c r="AA6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>5.584277489697699E-2</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>5.450104164199867E-2</v>
       </c>
       <c r="AC6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>5.3267898624701167E-2</v>
       </c>
       <c r="AD6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>5.2127556235103192E-2</v>
       </c>
       <c r="AE6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>5.1068887905554528E-2</v>
       </c>
       <c r="AF6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>5.0083038489751333E-2</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" si="7"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="4"/>
+        <v>4.916222771299663E-2</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
@@ -17852,132 +18386,132 @@
         <v>9</v>
       </c>
       <c r="B7" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.23348219839057546</v>
       </c>
       <c r="C7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.23348219839057546</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:AG7" si="5">D6</f>
+        <v>0.204038085392823</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="5"/>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" ref="D7:AG7" si="8">D6</f>
-        <v>0.34797860071758074</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <v>0.18238819135880077</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>0.16539295051873382</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>0.15112715046913303</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>0.13998152849314624</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>0.13011243939191849</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>0.12114311555073128</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>0.11316720012369265</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>0.10599925610497601</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>9.9504005254286293E-2</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>9.3612795910448535E-2</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>8.8342148669738288E-2</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>8.3699941619350099E-2</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>7.9596766567212124E-2</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>7.5958667775068142E-2</v>
       </c>
       <c r="S7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>7.2665203935349795E-2</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>6.9745048957003619E-2</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>6.7134644536674476E-2</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>6.4770964367726752E-2</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>6.2607453563828713E-2</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>6.0664829699345828E-2</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>5.8905620272680898E-2</v>
       </c>
       <c r="Z7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>5.7305073124077191E-2</v>
       </c>
       <c r="AA7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>5.584277489697699E-2</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>5.450104164199867E-2</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>5.3267898624701167E-2</v>
       </c>
       <c r="AD7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>5.2127556235103192E-2</v>
       </c>
       <c r="AE7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>5.1068887905554528E-2</v>
       </c>
       <c r="AF7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>5.0083038489751333E-2</v>
       </c>
       <c r="AG7" s="5">
-        <f t="shared" si="8"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="5"/>
+        <v>4.916222771299663E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17985,7 +18519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59916C1-B28E-4F09-A310-7E3B89357AC9}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -17993,7 +18527,7 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="AG7" sqref="B2:AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18108,131 +18642,132 @@
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>0.27500000000000002</v>
+        <f>C2</f>
+        <v>0.24</v>
       </c>
       <c r="C2" s="5">
-        <f>B2</f>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!B5</f>
+        <v>0.24</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:AG2" si="0">C2</f>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!C5</f>
+        <v>0.20418268179211024</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!D5</f>
+        <v>0.17903316377631606</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!E5</f>
+        <v>0.15995351624888648</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!F5</f>
+        <v>0.14436768772122596</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!G5</f>
+        <v>0.13245376321010369</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!H5</f>
+        <v>0.12209123412717848</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!I5</f>
+        <v>0.11282188106228654</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!J5</f>
+        <v>0.10469524203009128</v>
       </c>
       <c r="L2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!K5</f>
+        <v>9.7483213187765275E-2</v>
       </c>
       <c r="M2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!L5</f>
+        <v>9.1021386735858731E-2</v>
       </c>
       <c r="N2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!M5</f>
+        <v>8.5219858740613511E-2</v>
       </c>
       <c r="O2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!N5</f>
+        <v>8.0076618965895741E-2</v>
       </c>
       <c r="P2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!O5</f>
+        <v>7.5583054094544272E-2</v>
       </c>
       <c r="Q2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!P5</f>
+        <v>7.163934419821498E-2</v>
       </c>
       <c r="R2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!Q5</f>
+        <v>6.8164456614325603E-2</v>
       </c>
       <c r="S2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!R5</f>
+        <v>6.5036273640065728E-2</v>
       </c>
       <c r="T2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!S5</f>
+        <v>6.2276488665686566E-2</v>
       </c>
       <c r="U2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!T5</f>
+        <v>5.9820364330495111E-2</v>
       </c>
       <c r="V2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!U5</f>
+        <v>5.7605220113164768E-2</v>
       </c>
       <c r="W2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!V5</f>
+        <v>5.5584987062011357E-2</v>
       </c>
       <c r="X2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!W5</f>
+        <v>5.3776943950527067E-2</v>
       </c>
       <c r="Y2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!X5</f>
+        <v>5.2144428445085836E-2</v>
       </c>
       <c r="Z2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!Y5</f>
+        <v>5.0663111816396232E-2</v>
       </c>
       <c r="AA2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!Z5</f>
+        <v>4.9313033598077961E-2</v>
       </c>
       <c r="AB2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!AA5</f>
+        <v>4.8077020388887594E-2</v>
       </c>
       <c r="AC2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!AB5</f>
+        <v>4.6943356733716371E-2</v>
       </c>
       <c r="AD2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!AC5</f>
+        <v>4.5896975352807221E-2</v>
       </c>
       <c r="AE2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!AD5</f>
+        <v>4.4927226470676367E-2</v>
       </c>
       <c r="AF2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!AE5</f>
+        <v>4.4025638226093948E-2</v>
       </c>
       <c r="AG2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <f>'HDVs+LDV frt'!AF5</f>
+        <v>4.3184796669719076E-2</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -18240,132 +18775,132 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <f>'Heavy freight'!E11</f>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!B8</f>
+        <v>0.37478891888088628</v>
       </c>
       <c r="C3" s="5">
-        <f>B3</f>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!C8</f>
+        <v>0.32752481329209915</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D3:M3" si="1">C3</f>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!D8</f>
+        <v>0.29277209794665171</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!E8</f>
+        <v>0.26549109757713452</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!F8</f>
+        <v>0.2425914340720963</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!G8</f>
+        <v>0.22470032443106358</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!H8</f>
+        <v>0.20885832337023419</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!I8</f>
+        <v>0.19446063819893158</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!J8</f>
+        <v>0.18165758622927072</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!K8</f>
+        <v>0.17015150136330795</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!L8</f>
+        <v>0.15972523306118272</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" si="1"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!M8</f>
+        <v>0.15026858070782265</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" ref="N3:AC3" si="2">M3</f>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!N8</f>
+        <v>0.14180806339744578</v>
       </c>
       <c r="O3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!O8</f>
+        <v>0.13435632714676274</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!P8</f>
+        <v>0.12776985266446711</v>
       </c>
       <c r="Q3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!Q8</f>
+        <v>0.12192992515612415</v>
       </c>
       <c r="R3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!R8</f>
+        <v>0.1166432105356096</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!S8</f>
+        <v>0.111955736566103</v>
       </c>
       <c r="T3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!T8</f>
+        <v>0.10776547856236247</v>
       </c>
       <c r="U3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!U8</f>
+        <v>0.10397126580778587</v>
       </c>
       <c r="V3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!V8</f>
+        <v>0.10049836774202567</v>
       </c>
       <c r="W3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!W8</f>
+        <v>9.7380040507742058E-2</v>
       </c>
       <c r="X3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!X8</f>
+        <v>9.4556132716699853E-2</v>
       </c>
       <c r="Y3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!Y8</f>
+        <v>9.1986911852847936E-2</v>
       </c>
       <c r="Z3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!Z8</f>
+        <v>8.9639610108243339E-2</v>
       </c>
       <c r="AA3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AA8</f>
+        <v>8.7485840957849031E-2</v>
       </c>
       <c r="AB3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AB8</f>
+        <v>8.5506382388997798E-2</v>
       </c>
       <c r="AC3" s="5">
-        <f t="shared" si="2"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AC8</f>
+        <v>8.3675888696984002E-2</v>
       </c>
       <c r="AD3" s="5">
-        <f t="shared" ref="AD3:AG3" si="3">AC3</f>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AD8</f>
+        <v>8.1976499358439051E-2</v>
       </c>
       <c r="AE3" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AE8</f>
+        <v>8.039399996758545E-2</v>
       </c>
       <c r="AF3" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AF8</f>
+        <v>7.8915901517713744E-2</v>
       </c>
       <c r="AG3" s="5">
-        <f t="shared" si="3"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AF3</f>
+        <v>4.916222771299663E-2</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
@@ -18373,132 +18908,132 @@
         <v>6</v>
       </c>
       <c r="B4" s="5">
-        <f t="shared" ref="B4:AG7" si="4">B3</f>
-        <v>0.34797860071758074</v>
+        <f>B7</f>
+        <v>0.54523121874734648</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" ref="C4:AG4" si="0">C7</f>
+        <v>0.54523121874734648</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.49343682319560966</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.45293690730434283</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.41958587948257337</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.39046049637908725</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.36694744003672647</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.34554640412773607</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.32560409607494345</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.3074623111572436</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.29081960953785835</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.27545357901642936</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.26127564158164562</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.2483921211337331</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.23688557807000227</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.22658852311506336</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.21735747023443872</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.20891760131628878</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.20136725390138319</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.19456370621373489</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.18835864488141213</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.1826415571123938</v>
       </c>
       <c r="X4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.177477331303904</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.17277530112961961</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.16847621680147709</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.1645307481054927</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.16089559544203755</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.15754192472054221</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.15442973230233295</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.15153101644452951</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.14882348471020287</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="0"/>
+        <v>0.14628740091179032</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.35">
@@ -18506,132 +19041,132 @@
         <v>7</v>
       </c>
       <c r="B5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" ref="B4:AG7" si="1">B4</f>
+        <v>0.54523121874734648</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.54523121874734648</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.49343682319560966</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.45293690730434283</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.41958587948257337</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.39046049637908725</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.36694744003672647</v>
       </c>
       <c r="I5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.34554640412773607</v>
       </c>
       <c r="J5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.32560409607494345</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.3074623111572436</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.29081960953785835</v>
       </c>
       <c r="M5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.27545357901642936</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.26127564158164562</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.2483921211337331</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.23688557807000227</v>
       </c>
       <c r="Q5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.22658852311506336</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.21735747023443872</v>
       </c>
       <c r="S5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.20891760131628878</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.20136725390138319</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.19456370621373489</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.18835864488141213</v>
       </c>
       <c r="W5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.1826415571123938</v>
       </c>
       <c r="X5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.177477331303904</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.17277530112961961</v>
       </c>
       <c r="Z5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.16847621680147709</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.1645307481054927</v>
       </c>
       <c r="AB5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.16089559544203755</v>
       </c>
       <c r="AC5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.15754192472054221</v>
       </c>
       <c r="AD5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.15442973230233295</v>
       </c>
       <c r="AE5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.15153101644452951</v>
       </c>
       <c r="AF5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.14882348471020287</v>
       </c>
       <c r="AG5" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.14628740091179032</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
@@ -18639,132 +19174,132 @@
         <v>8</v>
       </c>
       <c r="B6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.54523121874734648</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.54523121874734648</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.49343682319560966</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.45293690730434283</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.41958587948257337</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.39046049637908725</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.36694744003672647</v>
       </c>
       <c r="I6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.34554640412773607</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.32560409607494345</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.3074623111572436</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.29081960953785835</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.27545357901642936</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.26127564158164562</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.2483921211337331</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.23688557807000227</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.22658852311506336</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.21735747023443872</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.20891760131628878</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.20136725390138319</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.19456370621373489</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.18835864488141213</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.1826415571123938</v>
       </c>
       <c r="X6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.177477331303904</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.17277530112961961</v>
       </c>
       <c r="Z6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.16847621680147709</v>
       </c>
       <c r="AA6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.1645307481054927</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.16089559544203755</v>
       </c>
       <c r="AC6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.15754192472054221</v>
       </c>
       <c r="AD6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.15442973230233295</v>
       </c>
       <c r="AE6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.15153101644452951</v>
       </c>
       <c r="AF6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.14882348471020287</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f t="shared" si="1"/>
+        <v>0.14628740091179032</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
@@ -18772,132 +19307,132 @@
         <v>9</v>
       </c>
       <c r="B7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>C7</f>
+        <v>0.54523121874734648</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!B7</f>
+        <v>0.54523121874734648</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!C7</f>
+        <v>0.49343682319560966</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!D7</f>
+        <v>0.45293690730434283</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!E7</f>
+        <v>0.41958587948257337</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!F7</f>
+        <v>0.39046049637908725</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!G7</f>
+        <v>0.36694744003672647</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!H7</f>
+        <v>0.34554640412773607</v>
       </c>
       <c r="J7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!I7</f>
+        <v>0.32560409607494345</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!J7</f>
+        <v>0.3074623111572436</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!K7</f>
+        <v>0.29081960953785835</v>
       </c>
       <c r="M7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!L7</f>
+        <v>0.27545357901642936</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!M7</f>
+        <v>0.26127564158164562</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!N7</f>
+        <v>0.2483921211337331</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!O7</f>
+        <v>0.23688557807000227</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!P7</f>
+        <v>0.22658852311506336</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!Q7</f>
+        <v>0.21735747023443872</v>
       </c>
       <c r="S7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!R7</f>
+        <v>0.20891760131628878</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!S7</f>
+        <v>0.20136725390138319</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!T7</f>
+        <v>0.19456370621373489</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!U7</f>
+        <v>0.18835864488141213</v>
       </c>
       <c r="W7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!V7</f>
+        <v>0.1826415571123938</v>
       </c>
       <c r="X7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!W7</f>
+        <v>0.177477331303904</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!X7</f>
+        <v>0.17277530112961961</v>
       </c>
       <c r="Z7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!Y7</f>
+        <v>0.16847621680147709</v>
       </c>
       <c r="AA7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!Z7</f>
+        <v>0.1645307481054927</v>
       </c>
       <c r="AB7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AA7</f>
+        <v>0.16089559544203755</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AB7</f>
+        <v>0.15754192472054221</v>
       </c>
       <c r="AD7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AC7</f>
+        <v>0.15442973230233295</v>
       </c>
       <c r="AE7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AD7</f>
+        <v>0.15153101644452951</v>
       </c>
       <c r="AF7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AE7</f>
+        <v>0.14882348471020287</v>
       </c>
       <c r="AG7" s="5">
-        <f t="shared" si="4"/>
-        <v>0.34797860071758074</v>
+        <f>'HDVs+LDV frt'!AF7</f>
+        <v>0.14628740091179032</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
+++ b/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BBSoEVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/CA/trans/BBSoEVP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10249609-DBFB-46BB-8EC7-67E2DDFAE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F91B066-439A-4F46-BC76-96782D045687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
   <si>
     <t>Sources:</t>
   </si>
@@ -534,6 +534,9 @@
   <si>
     <t>Sales Share by Vehicle Class</t>
   </si>
+  <si>
+    <t>California</t>
+  </si>
 </sst>
 </file>
 
@@ -719,7 +722,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -772,6 +775,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{13E1CFA4-3A09-44CF-A6C2-A41B6FD4087E}"/>
@@ -2811,23 +2815,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.1796875" customWidth="1"/>
+    <col min="2" max="2" width="80.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="46">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2835,147 +2845,147 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="45" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -3000,22 +3010,22 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="33" width="14.1796875" style="8" customWidth="1"/>
-    <col min="34" max="35" width="11.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.453125" style="8"/>
+    <col min="1" max="1" width="9.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="33" width="14.1640625" style="8" customWidth="1"/>
+    <col min="34" max="35" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -3113,7 +3123,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -3211,7 +3221,7 @@
         <v>5701.9614259999998</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -3309,7 +3319,7 @@
         <v>9346.6884769999997</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>12281.508301</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>15048.649903</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
@@ -3502,7 +3512,7 @@
         <v>0.37890185915371016</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -3600,7 +3610,7 @@
         <v>0.62109814084628989</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3609,7 +3619,7 @@
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -3710,7 +3720,7 @@
         <v>5.2311099999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
@@ -3808,7 +3818,7 @@
         <v>4.4015519999999995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
@@ -3906,7 +3916,7 @@
         <v>0.13885448</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
@@ -4004,7 +4014,7 @@
         <v>0.33331726000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
@@ -4102,7 +4112,7 @@
         <v>0.11286979999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -4203,7 +4213,7 @@
         <v>9.1554599999999989E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
@@ -4301,7 +4311,7 @@
         <v>0.29214037000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
@@ -4399,7 +4409,7 @@
         <v>6.4415600000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>34</v>
       </c>
@@ -4497,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>35</v>
       </c>
@@ -4595,7 +4605,7 @@
         <v>3.3520629999999996E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
@@ -4693,7 +4703,7 @@
         <v>0.21498138</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
@@ -4791,7 +4801,7 @@
         <v>3.8551540000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>38</v>
       </c>
@@ -4889,7 +4899,7 @@
         <v>3.9426370000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
@@ -4987,7 +4997,7 @@
         <v>3.9069489999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>40</v>
       </c>
@@ -5085,7 +5095,7 @@
         <v>4.3252079999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
@@ -5183,7 +5193,7 @@
         <v>0.22664550999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
@@ -5281,13 +5291,13 @@
         <v>0.36455269000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>24</v>
       </c>
@@ -5296,7 +5306,7 @@
       </c>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>26</v>
       </c>
@@ -5394,7 +5404,7 @@
         <v>1.9820773044375646E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>27</v>
       </c>
@@ -5492,7 +5502,7 @@
         <v>1.6677562359617312E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
@@ -5590,7 +5600,7 @@
         <v>5.2612220623821669E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>29</v>
       </c>
@@ -5688,7 +5698,7 @@
         <v>0.12629452950202061</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
@@ -5786,7 +5796,7 @@
         <v>4.276657706230743E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
@@ -5884,7 +5894,7 @@
         <v>3.4690208154074267E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
         <v>32</v>
       </c>
@@ -5982,7 +5992,7 @@
         <v>0.11069252932685279</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
@@ -6080,7 +6090,7 @@
         <v>2.4407190598501733E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>42</v>
       </c>
@@ -6181,7 +6191,7 @@
         <v>2.0819600972996368E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
         <v>36</v>
       </c>
@@ -6279,7 +6289,7 @@
         <v>0.13352453543456977</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>37</v>
       </c>
@@ -6377,7 +6387,7 @@
         <v>2.394428982076138E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
@@ -6475,7 +6485,7 @@
         <v>2.4487645107317938E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
         <v>39</v>
       </c>
@@ -6573,7 +6583,7 @@
         <v>2.4265987602812712E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>40</v>
       </c>
@@ -6671,7 +6681,7 @@
         <v>2.6863786475734997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
@@ -6769,7 +6779,7 @@
         <v>0.14076910489215921</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>33</v>
       </c>
@@ -6867,21 +6877,21 @@
         <v>0.22642299799951388</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
@@ -6979,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B54" s="17" t="s">
         <v>27</v>
       </c>
@@ -7079,7 +7089,7 @@
       <c r="AH54" s="10"/>
       <c r="AI54" s="10"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B55" s="8" t="s">
         <v>28</v>
       </c>
@@ -7179,7 +7189,7 @@
       <c r="AH55" s="10"/>
       <c r="AI55" s="10"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
         <v>29</v>
       </c>
@@ -7279,7 +7289,7 @@
       <c r="AH56" s="10"/>
       <c r="AI56" s="10"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B57" s="8" t="s">
         <v>30</v>
       </c>
@@ -7379,7 +7389,7 @@
       <c r="AH57" s="10"/>
       <c r="AI57" s="10"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
         <v>31</v>
       </c>
@@ -7479,7 +7489,7 @@
       <c r="AH58" s="10"/>
       <c r="AI58" s="10"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>32</v>
       </c>
@@ -7579,7 +7589,7 @@
       <c r="AH59" s="10"/>
       <c r="AI59" s="10"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
         <v>33</v>
       </c>
@@ -7679,7 +7689,7 @@
       <c r="AH60" s="10"/>
       <c r="AI60" s="10"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>34</v>
       </c>
@@ -7782,7 +7792,7 @@
       <c r="AH61" s="10"/>
       <c r="AI61" s="10"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
         <v>36</v>
       </c>
@@ -7880,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B63" s="8" t="s">
         <v>37</v>
       </c>
@@ -7980,7 +7990,7 @@
       <c r="AH63" s="10"/>
       <c r="AI63" s="10"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B64" s="8" t="s">
         <v>38</v>
       </c>
@@ -8078,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B65" s="8" t="s">
         <v>39</v>
       </c>
@@ -8178,7 +8188,7 @@
       <c r="AH65" s="10"/>
       <c r="AI65" s="10"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B66" s="8" t="s">
         <v>40</v>
       </c>
@@ -8278,7 +8288,7 @@
       <c r="AH66" s="10"/>
       <c r="AI66" s="10"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
         <v>32</v>
       </c>
@@ -8378,7 +8388,7 @@
       <c r="AH67" s="10"/>
       <c r="AI67" s="10"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B68" s="17" t="s">
         <v>33</v>
       </c>
@@ -8478,18 +8488,18 @@
       <c r="AH68" s="10"/>
       <c r="AI68" s="10"/>
     </row>
-    <row r="70" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
         <v>26</v>
       </c>
@@ -8587,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
         <v>27</v>
       </c>
@@ -8685,7 +8695,7 @@
         <v>2.2128660479462301E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
         <v>28</v>
       </c>
@@ -8783,7 +8793,7 @@
         <v>5.2612220623821669E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
         <v>29</v>
       </c>
@@ -8881,7 +8891,7 @@
         <v>0.12629452950202061</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
         <v>30</v>
       </c>
@@ -8979,7 +8989,7 @@
         <v>4.276657706230743E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
         <v>31</v>
       </c>
@@ -9077,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B78" s="8" t="s">
         <v>32</v>
       </c>
@@ -9175,7 +9185,7 @@
         <v>0.11069252932685279</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>33</v>
       </c>
@@ -9273,7 +9283,7 @@
         <v>2.4407190598501733E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>42</v>
       </c>
@@ -9374,7 +9384,7 @@
         <v>2.0819600972996368E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
         <v>36</v>
       </c>
@@ -9472,7 +9482,7 @@
         <v>0.13352453543456977</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
         <v>37</v>
       </c>
@@ -9570,7 +9580,7 @@
         <v>2.394428982076138E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B83" s="8" t="s">
         <v>38</v>
       </c>
@@ -9668,7 +9678,7 @@
         <v>2.4487645107317938E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B84" s="8" t="s">
         <v>39</v>
       </c>
@@ -9766,7 +9776,7 @@
         <v>2.4265987602812712E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B85" s="8" t="s">
         <v>40</v>
       </c>
@@ -9864,7 +9874,7 @@
         <v>2.6863786475734997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B86" s="8" t="s">
         <v>32</v>
       </c>
@@ -9962,7 +9972,7 @@
         <v>0.14076910489215921</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B87" s="8" t="s">
         <v>33</v>
       </c>
@@ -10060,7 +10070,7 @@
         <v>0.22642299799951388</v>
       </c>
     </row>
-    <row r="90" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
         <v>45</v>
       </c>
@@ -10068,12 +10078,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>26</v>
       </c>
@@ -10174,7 +10184,7 @@
         <v>80968.872000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>27</v>
       </c>
@@ -10275,7 +10285,7 @@
         <v>44404.087</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -10376,7 +10386,7 @@
         <v>33275.711000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>29</v>
       </c>
@@ -10477,7 +10487,7 @@
         <v>30943.995000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>30</v>
       </c>
@@ -10578,7 +10588,7 @@
         <v>37861.674999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>31</v>
       </c>
@@ -10679,7 +10689,7 @@
         <v>106564.087</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>32</v>
       </c>
@@ -10780,7 +10790,7 @@
         <v>29992.21</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>33</v>
       </c>
@@ -10881,7 +10891,7 @@
         <v>38230.708999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B100" s="8" t="s">
         <v>35</v>
       </c>
@@ -10979,7 +10989,7 @@
         <v>35264.445999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B101" s="8" t="s">
         <v>36</v>
       </c>
@@ -11077,7 +11087,7 @@
         <v>40569.968999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B102" s="8" t="s">
         <v>37</v>
       </c>
@@ -11175,7 +11185,7 @@
         <v>35530.845999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B103" s="8" t="s">
         <v>38</v>
       </c>
@@ -11273,7 +11283,7 @@
         <v>34065.201000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B104" s="8" t="s">
         <v>39</v>
       </c>
@@ -11371,7 +11381,7 @@
         <v>38625.667999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B105" s="8" t="s">
         <v>40</v>
       </c>
@@ -11469,7 +11479,7 @@
         <v>64958.861999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
         <v>56</v>
       </c>
@@ -11567,7 +11577,7 @@
         <v>33809.059000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B107" s="8" t="s">
         <v>57</v>
       </c>
@@ -11665,7 +11675,7 @@
         <v>46370.635999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:33" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:33" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="24" t="s">
         <v>58</v>
@@ -11702,7 +11712,7 @@
       <c r="AF108" s="25"/>
       <c r="AG108" s="25"/>
     </row>
-    <row r="109" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B109" s="8" t="s">
         <v>48</v>
       </c>
@@ -11800,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B110" s="8" t="s">
         <v>49</v>
       </c>
@@ -11898,7 +11908,7 @@
         <v>47893.864000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B111" s="8" t="s">
         <v>50</v>
       </c>
@@ -11996,7 +12006,7 @@
         <v>37207.881999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B112" s="8" t="s">
         <v>51</v>
       </c>
@@ -12094,7 +12104,7 @@
         <v>34765.69</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B113" s="8" t="s">
         <v>52</v>
       </c>
@@ -12192,7 +12202,7 @@
         <v>41727.862999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B114" s="8" t="s">
         <v>53</v>
       </c>
@@ -12290,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B115" s="8" t="s">
         <v>54</v>
       </c>
@@ -12388,7 +12398,7 @@
         <v>33879.688000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B116" s="8" t="s">
         <v>55</v>
       </c>
@@ -12486,7 +12496,7 @@
         <v>42019.215000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B117" s="8" t="s">
         <v>35</v>
       </c>
@@ -12584,7 +12594,7 @@
         <v>41482.201000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B118" s="8" t="s">
         <v>36</v>
       </c>
@@ -12682,7 +12692,7 @@
         <v>46803.074000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B119" s="8" t="s">
         <v>37</v>
       </c>
@@ -12780,7 +12790,7 @@
         <v>41604.519</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B120" s="8" t="s">
         <v>38</v>
       </c>
@@ -12878,7 +12888,7 @@
         <v>39947.468000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B121" s="8" t="s">
         <v>39</v>
       </c>
@@ -12976,7 +12986,7 @@
         <v>44679.234000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B122" s="8" t="s">
         <v>40</v>
       </c>
@@ -13074,7 +13084,7 @@
         <v>71400.763999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B123" s="8" t="s">
         <v>56</v>
       </c>
@@ -13172,7 +13182,7 @@
         <v>38742.171999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B124" s="8" t="s">
         <v>57</v>
       </c>
@@ -13270,7 +13280,7 @@
         <v>50426.273000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:33" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:33" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="24" t="s">
         <v>59</v>
@@ -13307,7 +13317,7 @@
       <c r="AF125" s="25"/>
       <c r="AG125" s="25"/>
     </row>
-    <row r="126" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:33" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B126" s="8" t="s">
         <v>48</v>
       </c>
@@ -13405,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B127" s="8" t="s">
         <v>49</v>
       </c>
@@ -13503,7 +13513,7 @@
         <v>54782.741999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B128" s="8" t="s">
         <v>50</v>
       </c>
@@ -13601,7 +13611,7 @@
         <v>42981.940999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B129" s="8" t="s">
         <v>51</v>
       </c>
@@ -13699,7 +13709,7 @@
         <v>42023.01</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B130" s="8" t="s">
         <v>52</v>
       </c>
@@ -13797,7 +13807,7 @@
         <v>51233.578000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B131" s="8" t="s">
         <v>53</v>
       </c>
@@ -13895,7 +13905,7 @@
         <v>118626.762</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B132" s="8" t="s">
         <v>54</v>
       </c>
@@ -13993,7 +14003,7 @@
         <v>42152.152999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B133" s="8" t="s">
         <v>55</v>
       </c>
@@ -14091,7 +14101,7 @@
         <v>52401.462999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B134" s="8" t="s">
         <v>35</v>
       </c>
@@ -14189,7 +14199,7 @@
         <v>48399.856999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B135" s="8" t="s">
         <v>36</v>
       </c>
@@ -14287,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B136" s="8" t="s">
         <v>37</v>
       </c>
@@ -14385,7 +14395,7 @@
         <v>49296.616000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B137" s="8" t="s">
         <v>38</v>
       </c>
@@ -14483,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B138" s="8" t="s">
         <v>39</v>
       </c>
@@ -14581,7 +14591,7 @@
         <v>52104.9</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B139" s="8" t="s">
         <v>40</v>
       </c>
@@ -14679,7 +14689,7 @@
         <v>82666.054000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B140" s="8" t="s">
         <v>56</v>
       </c>
@@ -14777,7 +14787,7 @@
         <v>46721.110999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B141" s="8" t="s">
         <v>57</v>
       </c>
@@ -14875,13 +14885,13 @@
         <v>61902.583999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
       <c r="B144" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C145" s="7">
         <v>2020</v>
       </c>
@@ -14976,7 +14986,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B146" s="8" t="s">
         <v>61</v>
       </c>
@@ -15074,7 +15084,7 @@
         <v>34223.758900205961</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B147" s="8" t="s">
         <v>62</v>
       </c>
@@ -15173,7 +15183,7 @@
       </c>
       <c r="AI147" s="31"/>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B148" s="8" t="s">
         <v>63</v>
       </c>
@@ -15271,13 +15281,13 @@
         <v>38083.262899259396</v>
       </c>
     </row>
-    <row r="150" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="29"/>
       <c r="B150" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C151" s="7">
         <v>2020</v>
       </c>
@@ -15372,7 +15382,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B152" s="30" t="s">
         <v>61</v>
       </c>
@@ -15470,7 +15480,7 @@
         <v>32757.347853553154</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B153" s="30" t="s">
         <v>62</v>
       </c>
@@ -15568,7 +15578,7 @@
         <v>36683.241130522299</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B154" s="8" t="s">
         <v>63</v>
       </c>
@@ -15666,7 +15676,7 @@
         <v>34512.987662623018</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C157" s="7"/>
       <c r="E157" s="31"/>
     </row>
@@ -15684,12 +15694,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
@@ -15697,7 +15707,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2020</v>
       </c>
@@ -15708,7 +15718,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -15722,7 +15732,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -15736,7 +15746,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -15750,7 +15760,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -15764,7 +15774,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -15778,7 +15788,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -15786,7 +15796,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>2020</v>
       </c>
@@ -15797,7 +15807,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -15814,7 +15824,7 @@
         <v>7.5308886519958804E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -15831,7 +15841,7 @@
         <v>0.17567573354125138</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -15848,7 +15858,7 @@
         <v>0.12991343885392936</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -15865,7 +15875,7 @@
         <v>0.59465216153992051</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -15882,7 +15892,7 @@
         <v>2.0904748863865383E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
@@ -15890,7 +15900,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>2020</v>
       </c>
@@ -15901,7 +15911,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -15918,13 +15928,13 @@
         <v>33227.961912950093</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -15933,7 +15943,7 @@
         <v>0.22203164776067363</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -15942,7 +15952,7 @@
         <v>0.34617198659342718</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -15950,7 +15960,7 @@
         <v>49996</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -15958,7 +15968,7 @@
         <v>39190.400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -15966,7 +15976,7 @@
         <v>32444.6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -15975,7 +15985,7 @@
         <v>0.21612929034322748</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -15999,17 +16009,17 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.90625" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>2020</v>
       </c>
@@ -16104,7 +16114,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -16130,7 +16140,7 @@
         <v>59241</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -16156,7 +16166,7 @@
         <v>69394</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -16182,12 +16192,12 @@
         <v>101008</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2020</v>
       </c>
@@ -16282,7 +16292,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -16315,7 +16325,7 @@
         <v>53201.665332848308</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -16348,7 +16358,7 @@
         <v>62319.6158759588</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -16381,7 +16391,7 @@
         <v>90710.720817345107</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -16414,7 +16424,7 @@
         <v>59927.367919640412</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -16422,7 +16432,7 @@
         <v>74481.20175540229</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -16431,7 +16441,7 @@
         <v>0.19540277939602735</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -16439,7 +16449,7 @@
         <v>60169</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -16462,22 +16472,22 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -16485,12 +16495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -16501,7 +16511,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>99</v>
       </c>
@@ -16510,13 +16520,13 @@
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="39"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>97</v>
       </c>
@@ -16527,7 +16537,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Heavy freight'!A15</f>
         <v>6-7</v>
@@ -16549,17 +16559,17 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>86</v>
       </c>
@@ -16568,12 +16578,12 @@
         <v>124864</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
         <v>86</v>
       </c>
@@ -16586,7 +16596,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -16598,12 +16608,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -16611,7 +16621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>86</v>
       </c>
@@ -16642,44 +16652,44 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="44">
         <v>43004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>93</v>
       </c>
@@ -16690,7 +16700,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>154</v>
       </c>
@@ -16701,30 +16711,30 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <v>43802</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>113</v>
       </c>
@@ -16735,12 +16745,12 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f t="shared" ref="B19:B24" si="0">E27</f>
         <v>Average</v>
@@ -16752,7 +16762,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>88</v>
       </c>
@@ -16769,7 +16779,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>87</v>
       </c>
@@ -16786,7 +16796,7 @@
         <v>25795</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>86</v>
       </c>
@@ -16803,7 +16813,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>8</v>
       </c>
@@ -16820,7 +16830,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>108</v>
       </c>
@@ -16837,15 +16847,15 @@
         <v>61600</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>111</v>
       </c>
@@ -16859,7 +16869,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>88</v>
       </c>
@@ -16878,7 +16888,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>87</v>
       </c>
@@ -16897,7 +16907,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>86</v>
       </c>
@@ -16916,7 +16926,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <v>8</v>
       </c>
@@ -16935,7 +16945,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>108</v>
       </c>
@@ -16947,7 +16957,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>107</v>
       </c>
@@ -16958,17 +16968,17 @@
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>88</v>
       </c>
@@ -16988,7 +16998,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
         <v>87</v>
       </c>
@@ -17007,7 +17017,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
         <v>86</v>
       </c>
@@ -17026,7 +17036,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="35">
         <v>8</v>
       </c>
@@ -17045,7 +17055,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
         <v>105</v>
       </c>
@@ -17053,12 +17063,12 @@
         <v>201351</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -17083,13 +17093,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -17190,7 +17200,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -17315,7 +17325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -17448,7 +17458,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -17581,7 +17591,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -17714,7 +17724,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -17847,7 +17857,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -17996,13 +18006,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -18103,7 +18113,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -18235,7 +18245,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -18368,7 +18378,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -18501,7 +18511,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -18634,7 +18644,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -18767,7 +18777,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
